--- a/Leader's note.xlsx
+++ b/Leader's note.xlsx
@@ -2,21 +2,51 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05d227db91bf3aa2/GitHub/tis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wvi365-my.sharepoint.com/personal/arkar_linn_visionfund_org/Documents/Desktop/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{BC9FD343-DC0A-4AC8-A18C-1F69C7E27C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC05EB36-99DD-4DE3-BE59-58AA44FD5EE2}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{BC9FD343-DC0A-4AC8-A18C-1F69C7E27C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8EC9015-32FD-4318-B123-D59638C6ACDC}"/>
   <bookViews>
-    <workbookView xWindow="64470" yWindow="-3525" windowWidth="14400" windowHeight="20985" activeTab="3" xr2:uid="{926027B3-CA24-4164-B444-5B6AFF725907}"/>
+    <workbookView xWindow="30105" yWindow="-3525" windowWidth="19755" windowHeight="20985" tabRatio="847" firstSheet="23" activeTab="33" xr2:uid="{926027B3-CA24-4164-B444-5B6AFF725907}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
+    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
+    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
+    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
+    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
+    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
+    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
+    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
+    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
+    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,8 +60,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>မင်္ဂလာပါ... ကျွန်တော် Arkar ပါ။ 👋
 Microfinance လုပ်ငန်းခွင်ထဲမှာ ကျွန်တော် ၁၀ နှစ်ကျော် ဖြတ်သန်းခဲ့ပါတယ်။ ဒီခရီးလမ်းက လွယ်ကူခဲ့တာတော့ မဟုတ်ပါဘူး။
@@ -117,6 +145,737 @@
 09 42532 0949
 arkarlinn@insights-mm.com
 #TheInsightsSolution #LeaderNote #CareerAdvice #CVTips #DataSkills #ProfessionalGrowth See less</t>
+  </si>
+  <si>
+    <t>Efficiency ⚡
+အလုပ်ကြိုးစားတာ (Hard Work) နဲ့ အလုပ်တွင်တာ (Smart Work) မတူပါ 🏗️ vs 🚀
+မင်္ဂလာပါ...
+ကျွန်တော်တို့ရဲ့ လုပ်ငန်းခွင် ယဉ်ကျေးမှုမှာ "အလုပ်ကြိုးစားတယ်" ဆိုတာကို အချိန်အကြာကြီး လုပ်တာ၊ အိမ်မပြန်ဘဲ နောက်ကျတဲ့အထိ လုပ်နေတာမျိုးနဲ့  မှားယွင်းစွာ တိုင်းတာလေ့ ရှိပါတယ်။
+ဒါပေမဲ့ Management နေရာကို ရောက်လာတဲ့အခါ အမြင် ပြောင်းသွားဖို့လိုပါတယ်။ ကျွန်တော်တို့ လိုချင်တာ "Effort (အားစိုက်ထုတ်မှု)" သက်သက် မဟုတ်ပါဘူး၊ "Result (ရလဒ်)" ပါ။
+Hard Work နဲ့ Smart Work ကွာခြားချက်ကို လုပ်ငန်းခွင် ဥပမာနဲ့ ယှဉ်ပြရရင် -
+🐢 Hard Work (ရိုးရိုးကြိုးစားခြင်း):
+ဝန်ထမ်းတစ်ယောက်က Branch ၅၀ ရဲ့ Data တွေကို Report ထုတ်ဖို့ Excel ဖိုင် ၅၀ ကို တစ်ခုချင်းဖွင့်၊ Copy ကူး၊ ပေါင်းထည့်ပြီး ၃ ရက်လောက် အချိန်ယူလုပ်တယ်။ ပြီးတော့ "ကျွန်တော် ပင်ပန်းခံပြီး ကြိုးစားထားပါတယ်" လို့ ပြောတယ်။
+🐆 Smart Work (ဉာဏ်သုံးကြိုးစားခြင်း):
+နောက်ဝန်ထမ်းတစ်ယောက်ကတော့ Power Query သို့မဟုတ် Power BI ကိုသုံးပြီး အဲဒီဖိုင် ၅၀ ကို ၅ မိနစ်နဲ့ Auto ပေါင်းလိုက်တယ်။ ကျန်တဲ့အချိန်မှာ Data ကို Analyze လုပ်ပြီး Insight ရှာတယ်။
+ညီငယ်ညီမငယ်တို့ကို မှာချင်တာက -
+လုပ်ငန်းခွင်မှာ "အလုပ်များနေသယောင် ပြဖို့ (Busy)" မကြိုးစားပါနဲ့။ "အလုပ်ပြီးမြောက်အောင် လုပ်ဖို့ (Productive)" ကြိုးစားပါ။
+ကွန်ပျူတာရှေ့မှာ အချိန်ကုန်နေတာ ဂုဏ်ယူစရာ မဟုတ်ပါဘူး။ နည်းပညာ (Tool) တွေကို သုံးပြီး အချိန်တိုအတွင်း တိကျတဲ့အဖြေထုတ်ပေးနိုင်မှသာ Senior တွေ သဘောကျတဲ့ Smart Employee ဖြစ်လာမှာပါ။
+ဒီနေ့ ကိုယ်လုပ်နေတဲ့ အလုပ်တစ်ခုကို ပြန်မေးကြည့်ပါ... "ဒီထက်မြန်အောင် လုပ်လို့ရတဲ့ နည်းလမ်း ရှိမလား?" လို့။
+Arkar Linn
+The Insights Solution
+#TheInsightsSolution #LeaderNote #SmartWork #Efficiency #Productivity #WorkSmarter</t>
+  </si>
+  <si>
+    <t>Accuracy 🎯
+Data မှားတာဟာ ငွေပျောက်တာထက် ပိုကြောက်ဖို့ကောင်းပါတယ် 📉⚠️
+မင်္ဂလာပါ...
+ငွေကြေးဝန်ဆောင်မှုလုပ်ငန်း (Financial Service) တစ်ခုမှာ အကြောက်ရဆုံးအရာက ဘာလဲလို့မေးရင် လူအများစုက "ငွေပျောက်တာ" လို့ ဖြေကြပါလိမ့်မယ်။
+ဒါပေမဲ့ Management အပိုင်းကို တာဝန်ယူထားရသူတွေအတွက်တော့ ငွေပျောက်တာထက် ပိုကြောက်ဖို့ကောင်းတာက "Data မှားနေတာ (Data Inaccuracy)" ပါပဲ။
+ဘာကြောင့်လဲဆိုတော့ -
+💸 ငွေပျောက်ရင် ပမာဏ ဘယ်လောက်လဲဆိုတာ ချက်ချင်းသိရတယ်။ ချက်ချင်း အရေးယူဖြေရှင်းလို့ ရတယ်။ ဆုံးရှုံးမှုက အကန့်အသတ် ရှိတယ်။
+📉 Data မှားရင်တော့... အဲဒီအမှားကို အခြေခံပြီး ဆုံးဖြတ်ချက်တွေ ချမိတော့တာပါပဲ။
+ဥပမာ - Branch တစ်ခုရဲ့ PAR (Portfolio At Risk) က တကယ်တမ်း ၁၀% ရှိနေပေမယ့်၊ Data အမှားကြောင့် (သို့) Early Closures ပြပြီး စာရင်းပြန်ထုတ်ထားလို့ PAR ၂% လို့ Report တက်လာတယ် ဆိုပါစို့။
+Management က အခြေအနေကောင်းတယ်ထင်ပြီး အဲဒီ Branch ကို Investment ငွေထပ်ဖြည့်ပေးလိုက်မယ်။ နောက်ဆုံး ပြဿနာတက်မှ သိလိုက်ရတဲ့အခါ ဆုံးရှုံးမှုက ဆယ်ဆမက ကြီးမားသွားပါပြီ။
+ဒါကြောင့် ညီငယ်ညီမငယ်တို့ကို အမြဲ သတိပေးချင်တာက -
+🐢 Speed is good, but Accuracy is everything.
+Report တင်တာ မြန်ဖို့ထက် မှန်ဖို့က ပိုအရေးကြီးပါတယ်။
+🔍 Self-Audit Habit
+ကိုယ့်လက်ထဲက Data ကို သူများမစစ်ခင် "ငါမှားနိုင်လား" ဆိုတဲ့ စိတ်နဲ့ ကိုယ်တိုင် အရင်ဆုံး စစ်ဆေးတဲ့ အလေ့အကျင့် လုပ်ပါ။
+✅ Validate Formulas
+Excel Formula တွေကို ကူးချ (Copy Paste) လုပ်တဲ့အခါ Cell Reference တွေ လွဲမသွားအောင် အမြဲပြန်ကြည့်ပါ။
+ကျွန်တော်တို့ရဲ့ ဆုံးဖြတ်ချက် (Decision) တွေ မှန်ကန်ဖို့ဆိုတာ သင်တို့ပေးပို့လိုက်တဲ့ Data တွေရဲ့ မှန်ကန်မှု (Accuracy) ပေါ်မှာ ၁၀၀% မူတည်နေပါတယ်။
+"ကျွန်တော့် Report က ယုံကြည်ရပါတယ်" လို့ ရဲရဲဝံ့ဝံ့ ပြောနိုင်တဲ့ Professional တစ်ယောက် ဖြစ်ပါစေ။
+Arkar Linn
+The Insights Solution
+#TheInsightsSolution #LeaderNote #DataAccuracy #Precision #u0906u092a</t>
+  </si>
+  <si>
+    <t>The Excel Myth 📉➡️🧠
+Excel ဆိုတာ စာရင်းပေါင်းဖို့သက်သက် မဟုတ်ပါ (It's a Logic Tool) 💡
+မင်္ဂလာပါ...
+ကျွန်တော် သင်တန်းတွေပေးတဲ့အခါပဲဖြစ်ဖြစ်၊ ဝန်ထမ်းသစ်တွေကို မေးတဲ့အခါပဲဖြစ်ဖြစ် မကြာခဏ ကြားရတာက -
+"ကျွန်တော်/ကျွန်မ Excel ကျွမ်းကျင်ပါတယ်၊ SUM တို့ AVERAGE တို့ ပေါင်းတတ်ပါတယ်" ဆိုတဲ့ စကားပါ။
+တကယ်တော့ Management အမြင်အရ Excel ဆိုတာ "ကြီးမားတဲ့ ဂဏန်းပေါင်းစက် (Calculator)" တစ်ခု မဟုတ်ပါဘူး။ Excel ဆိုတာ "ယုတ္တိဗေဒ (Logic)" ကို အခြေခံတဲ့ တွေးခေါ်မှုဆိုင်ရာ Tool တစ်ခုပါ။
+ဘာကွာခြားလဲဆိုတာ ဥပမာနဲ့ ယှဉ်ကြည့်ရအောင် -
+🧮 Calculator Mindset (ဂဏန်းပေါင်းစက် သမား):
+ချေးငွေပမာဏ ၁၀ သိန်း၊ အတိုး ၂.၅% ဆိုရင် ၂ သောင်းခွဲကျမယ်ဆိုပြီး အဖြေကို လက်နဲ့ရိုက်ထည့်တယ်။ (ဒါက Data Entry ပါ)။
+🧠 Logic Mindset (Excel သမား):
+သူက ဂဏန်းကို မရိုက်ထည့်ပါဘူး။ Logic (ဖော်မြူလာ) ကို တည်ဆောက်ပါတယ်။
+"Principal Amount က ဘယ်လောက်ပဲပြောင်းပြောင်း၊ Interest Rate က ဘယ်လိုပဲပြောင်းပြောင်း အဖြေအလိုလိုထွက်ရမယ်" ဆိုတဲ့ စနစ် (System) ကို တည်ဆောက်ပါတယ်။
+ဒါကြောင့် ညီငယ်ညီမငယ်တွေကို အကြံပြုချင်တာက -
+✅ Stop Memorizing Formulas:
+VLOOKUP ဖော်မြူလာကို အလွတ်မကျက်ပါနဲ့။ "ငါလိုချင်တဲ့ Data က ဘယ်မှာရှိလဲ၊ အဲ့ဒါကို ဘယ်လိုလှမ်းယူမလဲ" ဆိုတဲ့ သဘောတရားကို နားလည်အောင် လုပ်ပါ။
+✅ Think in Scenarios:
+"တကယ်လို့ Client က ရက်ကျော်သွားရင် ဒဏ်ကြေး ဘယ်လိုတွက်မလဲ?" (IF function) ဆိုတဲ့ အခြေအနေတွေကို ကြိုတင်စဉ်းစားတတ်တဲ့ အကျင့်လုပ်ပါ။
+Excel ကျွမ်းကျင်တယ်ဆိုတာ Function တွေအများကြီး သိတာကို ဆိုလိုတာ မဟုတ်ပါဘူး။ ရှုပ်ထွေးတဲ့ ပြဿနာတွေကို ရှင်းလင်းတဲ့ Logic နဲ့ ဖြေရှင်းနိုင်တာကို ဆိုလိုတာပါ။
+ဒီနေ့ကစပြီး Excel ကို ဖွင့်လိုက်တိုင်း "ငါ စာရင်းဖြည့်မယ်" လို့ မတွေးဘဲ "ငါ Logic တည်ဆောက်မယ်" လို့ တွေးကြည့်လိုက်ပါ။ သင့်ရဲ့ Skill Level တစ်ဆင့် မြင့်သွားပါလိမ့်မယ်။
+Arkar Linn
+The Insights Solution
+#TheInsightsSolution #LeaderNote #ExcelSkills #LogicThinking #DataMindset #ProfessionalGrowth</t>
+  </si>
+  <si>
+    <t>The Power of Visualization 📊🚀
+Dashboard တစ်ခုက သင့်ရဲ့ တန်ဖိုး (Value) ကို ဘယ်လို ပြောင်းလဲပေးနိုင်လဲ? 💎
+မင်္ဂလာပါ... မင်္ဂလာရှိသော တနင်္လာနေ့လေး ဖြစ်ပါစေ။
+လုပ်ငန်းခွင်မှာ Data နဲ့ အလုပ်လုပ်နေတဲ့ ညီငယ်ညီမငယ်တွေကို မေးခွန်းတစ်ခု မေးချင်ပါတယ်။
+"သင်ဟာ ကုမ္ပဏီအတွက် Report ထုတ်ပေးသူလား? ဒါမှမဟုတ် အဖြေ (Answer) ထုတ်ပေးသူလား?"
+Senior Management အမြင်အရ ဒီနှစ်ခုက တန်ဖိုး (Value) ချင်း မတူပါဘူး။
+📄 The Reporter (Excel Level):
+လကုန်ရင် Excel ဇယားကြီးတွေ ပေးပို့တယ်။ ဂဏန်းတွေ အများကြီးပါတယ်။ "ရော့... ဒီမှာ Data တွေ၊ ကြိုက်သလို ကြည့်ကြတော့" ဆိုတဲ့ ပုံစံမျိုးပါ။ ဒါက Information ပေးတာဖြစ်လို့ တန်ဖိုးတစ်ခု ရှိပေမယ့်၊ ဆုံးဖြတ်ချက်ချသူတွေအတွက်တော့ ခေါင်းရှုပ်ရပါတယ်။
+🖥️ The Advisor (Power BI Level):
+သူကတော့ ဂဏန်းတွေကို ဒီတိုင်းမပေးပါဘူး။ Interactive Dashboard တစ်ခုအဖြစ် ဖန်တီးပေးပါတယ်။
+"ဘယ် Branch က အားအနည်းဆုံးလဲ?" (Map မှာ အနီရောင် ပြနေမယ်)
+"ပြီးခဲ့တဲ့လနဲ့ ယှဉ်ရင် ဘယ်လောက်တက်လာလဲ?" (Trend Line နဲ့ ပြမယ်)
+Management တွေက Dashboard တစ်ခုကို မြင်လိုက်တာနဲ့ "ဘာဖြစ်နေလဲ" ဆိုတာကို ၃ စက္ကန့်အတွင်း သိလိုက်ရတယ်။ အဲဒီ "အချိန်ကုန်သက်သာစေမှု" နဲ့ "ရှင်းလင်းမှု" ဟာ သင့်ရဲ့ တန်ဖိုး (Value) ပါပဲ။
+ကျွန်တော့်အတွေ့အကြုံအရ -
+Excel ဇယားတစ်ခုဟာ "Static Map (မြေပုံရွက်)" တစ်ခုနဲ့ တူပြီး၊ Power BI Dashboard ကတော့ "GPS Navigation" နဲ့ တူပါတယ်။
+မြေပုံက လမ်းကို ပြပေးပေမယ့်၊ GPS ကတော့ "ဘယ်လမ်းက သွားရင် ပိုမြန်မလဲ" ဆိုတာကို လမ်းညွှန်ပေးနိုင်ပါတယ်။ ခေတ်မီတဲ့ ခေါင်းဆောင်တွေက GPS လိုလူမျိုးကိုပဲ လစာပိုပေးပြီး နေရာပေးလေ့ရှိပါတယ်။
+ဒါကြောင့် ဒီနေ့ တနင်္လာနေ့ကစပြီး...
+ကိုယ့်ရဲ့ Career ကို နောက်တစ်ဆင့် (Next Level) မြှင့်တင်ဖို့အတွက် Data Visualization (Power BI) ကို စတင်လေ့လာဖို့ တိုက်တွန်းချင်ပါတယ်။
+သင်ဟာ ဂဏန်းပေါင်းသူ သက်သက် မဟုတ်ပါဘူး။ လုပ်ငန်းရဲ့ အနာဂတ်ကို ပုံဖော်ပေးသူ (Architect) တစ်ယောက်ပါ။ 🔥
+Arkar Linn
+The Insights Solution
+#TheInsightsSolution #LeaderNote #PowerBI #DataVisualization #CareerGrowth #ValueCreation #MondayMotivation</t>
+  </si>
+  <si>
+    <t>🧠 Great Leader တိုင်းမှာရှိတဲ့ "Secret Mindset"
+ (Or: "What" ထက် "Why" ကို မေးပါ)
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+ကျွန်တော်တို့ Team တွေမှာ Challenge တစ်ခုခု (ဥပမာ - Sales လျော့သွားတာမျိုး) ကြုံရတဲ့အခါ...
+ပုံမှန်အားဖြင့် ကျွန်တော်တို့ဟာ ဒီမေးခွန်းတွေကိုပဲ အလွယ်တကူ မေးမိတတ်ကြပါတယ်။
+"Sales တွေ ဘယ်လောက်ကျသွားလဲ?" (What happened?)
+"ဘယ်သူ့ကြောင့် ကျတာလဲ?" (Who is responsible?)
+ဒီမေးခွန်းတွေက Report ကောင်းတစ်ခု ထွက်လာဖို့ ကူညီပေးနိုင်ပေမဲ့၊ Solution ကောင်းတစ်ခု ထွက်လာဖို့တော့ မလုံလောက်သေးပါဘူး။
+SMT (Senior Management Team) Level ကို တက်လှမ်းချင်တဲ့ မောင်ငယ်ညီမငယ်တွေ၊ မိတ်ဆွေတွေအတွက် ကျွန်တော်အကြံပေးချင်တာကတော့...
+ပြဿနာတစ်ခုကို မြင်တာနဲ့ 
+✅ "Why did it happen?" (ဘာကြောင့် ဒီလိုဖြစ်ရတာလဲ?) ဆိုတဲ့ မေးခွန်းကို အရင်ဆုံး စမေးကြည့်စေချင်ပါတယ်။
+ဒါက "Problem Solving" ရဲ့ သော့ချက်ပါပဲ။
+💡 The "5 Whys" Technique
+ကမ္ဘာကျော် Toyota ကုမ္ပဏီက စတင်ခဲ့ပြီး အခုချိန်ထိ ထိပ်တန်းကုမ္ပဏီကြီးတွေ သုံးနေတဲ့ နည်းလမ်းလေးတစ်ခုကို လက်ဆောင်မျှဝေပါရစေ။ ပြဿနာတစ်ခုတွေ့ရင် "Why" လို့ (၅) ခါ ဆက်တိုက်မေးကြည့်တဲ့ နည်းလမ်းပါ။
+Example: Report ပို့တာ ပုံမှန်ထက် နောက်ကျနေတယ်။ (The Challenge)
+Why? 👉 Data စုရတာ ကြာနေလို့။
+Why? 👉 Branch တွေက Excel File တွေ ပုံစံတူမပို့လို့။
+Why? 👉 Standard Template တစ်ခု မသတ်မှတ်ထားလို့။
+Why? 👉 Head Office က Training သေချာ မပေးခဲ့လို့။
+Why? 👉 Training Process မှာ Data Skills ကို ထည့်မဆွဲထားလို့။ 
+(Root Cause!) 🎯 တွေ့လိုက်ပါသလား?
+အပေါ်ယံကြည့်ရင် "ဝန်ထမ်းတွေ နှေးလို့" လို့ ထင်ရပေမဲ့၊ တကယ်တမ်းကျတော့ "Training System ကောင်းတစ်ခု လိုအပ်နေတာ" ကို ရှာဖွေတွေ့ရှိသွားပါတယ်။
+လူကို အပြစ်တင်စရာမလိုဘဲ System ကို ပြင်လိုက်တာနဲ့ အားလုံးအတွက် ပိုကောင်းတဲ့ ရလဒ်ကို ရသွားစေပါတယ်။
+Leadership Note:
+Report တစ်စောင်ကို ဖတ်တဲ့အခါ "ကိန်းဂဏန်းတွေ" ရဲ့ နောက်ကွယ်က "အကြောင်းရင်း" ကို မြင်အောင်ကြည့်တတ်တဲ့ အလေ့အကျင့်လေး လုပ်ကြည့်ပါ။
+ဒါဆိုရင် သင်ဟာ ရိုးရိုး "Reporter" အဆင့်ကနေ တန်ဖိုးရှိတဲ့ "Problem Solver" အဆင့်ကို အလိုလို ရောက်ရှိလာပါလိမ့်မယ်။
+ဒီ Post လေးက သင့်အတွက် အကျိုးရှိတယ်ဆိုရင် Team Member တွေကို ပြန်မျှဝေပေးဖို့ မမေ့နဲ့နော်။
+See you in Day 10!
+#TheInsightsSolution #LeadersNote #Day9 #RootCauseAnalysis #5Whys #ProblemSolving #GrowthMindset #MyanmarPersonalBranding</t>
+  </si>
+  <si>
+    <t>⏱️ Meeting မစခင် (၁၅) မိနစ်အလို... (သို့) ကျွန်တော့်ရဲ့ Big Data အမှား
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+ဒီနေ့တော့ Technical တွေခဏနားပြီး ကျွန်တော့်ဘဝမှာ ရင်အခုန်ရဆုံး ဖြစ်ခဲ့တဲ့ ဖြစ်ရပ်မှန်တစ်ခုကို ပြောပြချင်ပါတယ်။
+လွန်ခဲ့တဲ့ နှစ်အနည်းငယ်... COVID-19 3rd Wave ကာလပေါ့။
+အဖွဲ့အစည်းကလည်း အခက်အခဲတွေ အများကြီး ကြုံနေရတဲ့အချိန် (Crisis Time) ဖြစ်ပါတယ်။ အဲဒီအချိန်မှာ ကျွန်တော်က Big Data Analysis တွေကို စပြီး ကိုင်တွယ်နေပါပြီ။ Report တွေကို မြန်ချင်လို့ Automation နည်းပညာတွေ စသုံးနေတဲ့အချိန်ပေါ့။
+အပတ်စဉ် အရေးကြီးတဲ့ Online Meeting တစ်ခုရှိတယ်။
+Boss က Australia နိုင်ငံသားပါ။ သူက Detail အရမ်းကျတယ်၊ အရမ်းစေ့စပ်သေချာတဲ့သူ (Perfectionist) ပေါ့။ Meeting မှာ တခြားနိုင်ငံခြားသားတွေလည်း အများကြီး ပါတယ်။
+ကျွန်တော် ယုံကြည်မှုရှိရှိနဲ့ Automation Run ပြီးထွက်လာတဲ့ Report ကို Boss ဆီ Email ပို့လိုက်တယ်။
+ပို့ပြီးမှ စိတ်ထဲမတင်မကျဖြစ်ပြီး Data ကို ပြန်စစ်လိုက်တော့...
+😱 "ဟာ... သွားပြီ။ Automation Script မှားပြီး Data တွေ လွဲနေပါလား!"
+Meeting စဖို့က (၁၅) မိနစ် ပဲ လိုတော့တယ်။
+အဲဒီ (၁၅) မိနစ်တာ ကာလလေးကတော့... ကျွန်တော့်အတွက် "ကမ္ဘာပေါ်မှာ အလျှင်မြန်ဆုံးလူသား" ဖြစ်ခဲ့ရတဲ့ အချိန်ပါပဲ။ 🏃‍♂️💨
+Boss က အဲဒီ Report ကိုဖွင့်ပြီး Meeting မှာ ပြောတော့မှာ။ မှားနေတဲ့ Data တွေကို နိုင်ငံခြားသားတွေရှေ့မှာ ပြမိရင် အဖွဲ့အစည်းရော၊ ကျွန်တော့် Professional Image ပါ ထိခိုက်တော့မယ်။
+ကျွန်တော် ဘာလုပ်ခဲ့လဲ?
+ကြောက်ပြီး ငြိမ်နေလို့မရဘူး။ Panic မဖြစ်ဘဲ Focus ပြန်လုပ်ပါတယ်။
+ချက်ချင်းပဲ Error ကို ရှာ၊ Script ကို ပြင်၊ Data ကို ပြန် Run ပြီး...
+Meeting မစခင် (၁၅) မိနစ်အလို အရောက်မှာပဲ Correct Version ကို Boss ဆီ ပြန်ပို့ (Send) လိုက်နိုင်ခဲ့ပါတယ်။
+"Boss ရေ... ခုနက File မှာ System Error လေး နည်းနည်းရှိလို့ ဒါလေးပဲ သုံးပေးပါ" လို့ လှမ်းပြောလိုက်တော့...
+Boss က ပြန်ပြောတယ်။
+✅ "Well done, Arkar! Good recovery." (ကောင်းတယ် အာကာ.. အချိန်မီ ပြင်နိုင်လို့ တော်တယ်) တဲ့။
+Meeting ပြီးတော့ ကိုယ့်ကိုယ်ကို ဘယ်လောက်တောင် ကျေနပ်သွားလဲ မမေးနဲ့တော့။
+💡 Leader's Note:
+Big Data နဲ့ Automation သုံးတဲ့အခါ "မြန်တာ" က ကောင်းပေမဲ့ "မှန်ဖို့" က ပိုလိုပါတယ်။
+ဒါပေမဲ့ ပိုအရေးကြီးတာက... အမှားတစ်ခုတွေ့ရင် ချက်ချင်းလက်ငင်း ဖြေရှင်းနိုင်တဲ့ "Agility" (ဖျတ်လတ်မှု) ပါပဲ။
+Leader တစ်ယောက်ဖြစ်လာရင် အရာရာဟာ ကိုယ့်ထိန်းချုပ်မှုအောက်မှာ မရှိနိုင်ပါဘူး။
+ဒါပေမဲ့ ပြဿနာတက်လာတဲ့အခါ ၁၅ မိနစ်ပဲ အချိန်ရရ၊ ၁ မိနစ်ပဲ အချိန်ရရ... အကောင်းဆုံး ဖြေရှင်းနိုင်ဖို့ကသာ အဓိကပါ။
+ဒီနေ့တော့ ဒီလောက်ပါပဲ။ မနက်ဖြန်ကျရင် Microfinance သမားတိုင်း မဖြစ်မနေသိထားရမယ့် Metric (၃) ခု အကြောင်း ပြောပြမယ်။
+See you in Day 11!
+#TheInsightsSolution #LeadersNote #Day10 #CrisisManagement #BigData #Automation #ExperienceSharing #CareerJourney #DataToDecision</t>
+  </si>
+  <si>
+    <t>📊 Microfinance လောကရဲ့ "အသက်" (၃) သက် (The 3 Key Metrics)
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+Data သမားတစ်ယောက်အနေနဲ့ MFI (Microfinance) တစ်ခုမှာ အလုပ်လုပ်တော့မယ်ဆိုရင် Report ပေါင်း ၁၀၀ လောက် လုပ်ရနိုင်ပါတယ်။
+ဒါပေမဲ့ Senior Management (SMT) Level က အမြဲတမ်း စောင့်ကြည့်နေတဲ့ "The Big Three" (အဓိက မက်ထရစ် ၃ ခု) ရှိပါတယ်။
+Junior တွေအနေနဲ့ Report ထုတ်ပေးရုံတင်မဟုတ်ဘဲ၊ ဒီဂဏန်းတွေရဲ့ သဘောတရားနဲ့ တွက်ချက်ပုံတွေကို နားလည်ထားရင် သင်ဟာ Boss နဲ့ "Language" တူသွားပါပြီ။
+1️⃣ PAR &gt; 30 Days (Portfolio at Risk - စွန့်စားရနိုင်ခြေ)
+Meaning: ရက်ပေါင်း (၃၀) ကျော်ကြာ အကြွေးမဆပ်နိုင်တဲ့ ငွေပမာဏ ဘယ်လောက်ရှိလဲ။
+The Insight: ဒါက MFI တစ်ခုရဲ့ "သွေးပေါင်ချိန်" ပါပဲ။ PAR တက်လာတယ်ဆိုတာ ကျွန်တော်တို့ရဲ့ ချေးငွေအရည်အသွေး (Quality) ကျဆင်းလာတာကို ပြပါတယ်။
+📐 Equation:
+PAR (&gt;30 Days) = Outstanding Balance (&gt;30 Days) / Total Gross Loan Portfolio
+🎯 Global Standard:
+နိုင်ငံတကာစံနှုန်းအရ 5% အောက် မှာ ရှိနေရင် ကျန်းမာတယ် (Healthy) လို့ ယူဆပါတယ်။
+2️⃣ OSS (Operational Self-Sufficiency - လုပ်ငန်းလည်ပတ်နိုင်စွမ်း)
+Meaning: ဝင်ငွေ (Revenue) က ကုန်ကျစရိတ် (Expense) အားလုံးကို ကာမိရဲ့လား။
+The Insight: ဒါက "အသက်ရှူလမ်းကြောင်း" ပါ။
+100% အောက် = အရှုံးပေါ်နေတယ် (Sustainability မရှိသေး)။
+100% ကျော်ပြီဆိုမှ = ကိုယ့်ခြေထောက်ပေါ်ကိုယ်ရပ်ပြီး အမြတ်စထွက်နေပြီ (Real Business ဖြစ်ပြီ)။
+📐 Equation:
+OSS = Operating Revenue / (Financial Exp + Loan Loss Provision + Operating Exp)
+🎯 Global Standard:
+&gt; 100% ဆိုရင် Break-even ဖြစ်ပြီး၊ &gt; 110% ရှိမှသာ ရေရှည်ခိုင်မြဲတဲ့ MFI တစ်ခုလို့ သတ်မှတ်ကြပါတယ်။
+3️⃣ OER (Operating Expense Ratio - လုပ်ငန်းသုံးစရိတ် အချိုးအစား)
+Meaning: ငွေ (၁၀၀) ကျပ် ထုတ်ချေးနိုင်ဖို့အတွက် ရုံးစရိတ်/ဝန်ထမ်းစရိတ် ဘယ်လောက် သုံးလိုက်ရလဲ။
+The Insight: ဒါက "ကြွက်သားအား" (Efficiency) ပါ။ ဒီ Ratio နည်းလေလေ၊ ကျွန်တော်တို့ အလုပ်လုပ်ရတာ တွက်ခြေကိုက်လေလေ၊ ဝန်ထမ်းတွေ Smart ဖြစ်လေလေပါပဲ။
+📐 Equation:
+OER = Operating Expense / Average Gross Loan Portfolio
+🎯 Global Standard:
+Microfinance သဘာဝအရ လူအင်အားသုံးရလို့ Bank တွေထက် စရိတ်မြင့်တတ်ပေမဲ့၊ နိုင်ငံတကာ MFI ကောင်းတွေဟာ 10% - 15% ကြားမှာ ထိန်းထားလေ့ရှိပါတယ်။ (Lower is Better).
+💡 Leader's Note:
+Report တစ်စောင်ကို ကြည့်ရင်...
+"ချေးငွေ ဘယ်လောက်ထုတ်လိုက်လဲ" (Disbursement) ဆိုတဲ့ Volume ကိုပဲ ကြည့်တာသာမက
+Quality (PAR ကောင်းလား?)၊ 
+Sustainability (OSS ကျော်လား?)၊ 
+Efficiency (OER သက်သာလား?) ဆိုတာကိုပါ တွဲကြည့်တတ်ပါစေ။
+ဒါမှ သင်ဟာ "စာရင်းကိုင်" အဆင့်ကနေ "Business Analyst" အဆင့်ကို တက်လှမ်းနိုင်မှာပါ။
+မနက်ဖြန် (Day 12) မှာတော့...
+Data သမားတွေ၊ Manager တွေ အဖြစ်များဆုံး ပြဿနာတစ်ခုဖြစ်တဲ့ "အလုပ်ပိခြင်း" ကို ဖြေရှင်းဖို့ "၈ နာရီစာအလုပ်ကို ၂ နာရီနဲ့ ပြီးအောင်လုပ်နည်း" ကို မျှဝေပေးသွားပါမယ်။
+See you in Day 12!
+#TheInsightsSolution #LeadersNote #Day11 #Microfinance #KeyMetrics #PAR #OSS #OER #DataLiteracy #CareerGrowth</t>
+  </si>
+  <si>
+    <t>⏳ ၈ နာရီစာ အလုပ်ကို ၂ နာရီနဲ့ ပြီးအောင် လုပ်နည်း (The Secret of High Performers)
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+ကျွန်တော်တို့ Trainee ဘဝတုန်းကတော့ အလုပ်များမှ အလုပ်လုပ်တယ်လို့ ထင်ခဲ့ဖူးကြမှာပါ။
+ဒါပေမဲ့ Senior Level ရောက်လာတဲ့အခါမှ ဒီစကားတစ်ခွန်းကို ကောင်းကောင်း နားလည်လာပါလိမ့်မယ်။
+"Busyness is not Business." (အလုပ်ရှုပ်နေတိုင်း အလုပ်တွင်တာ မဟုတ်ပါဘူး)။
+တကယ်တော်တဲ့ Data Leader တွေဟာ ၈ နာရီကြာမယ့် အလုပ်ကို ၂ နာရီနဲ့ ပြီးအောင်လုပ်ပြီး၊ ကျန်တဲ့အချိန်ကို Strategy အတွက် သုံးကြပါတယ်။ ဘယ်လိုလုပ်မလဲ?
+✅ 1. Stop "Zero-Based" Creation (သုညကနေ စတာ ရပ်လိုက်ပါ)
+Report တစ်စောင်လုပ်တိုင်း File အသစ်ဖွင့်၊ ခေါင်းစဉ်ပြန်တပ်၊ Format ပြန်ချ နေတုန်းလား? ဒါ အချိန်ဖြုန်းတာပါ။
+"Master Template" တစ်ခု တည်ဆောက်ထားပါ။ Data အသစ်ရောက်လာရင် Copy-Paste လုပ်လိုက်တာနဲ့ အဖြေထွက်လာမယ့် System မျိုး ဖန်တီးပါ။
+✅ 2. Batching (တူရာစုလုပ်ပါ)
+Email ကို ၁၀ မိနစ်တစ်ခါ ဝင်စစ်တာ၊ Phone ခဏခဏကြည့်တာက သင့်အာရုံစူးစိုက်မှု (Flow) ကို ဖျက်စီးပါတယ်။
+Data Entry လုပ်စရာရှိရင် တောက်လျှောက်လုပ်။ Email စစ်စရာရှိရင် တစ်ချိန်တည်း အပြီးစစ်။ ဒါက ဦးနှောက်ကို ပိုမြန်စေပါတယ်။
+✅ 3. Parkinson's Law (ပါကင်ဆန် နိယာမ)
+"အလုပ်တစ်ခုဟာ ရသလောက် အချိန်ယူပြီး ပြီးတတ်တယ်" ဆိုတဲ့ သဘောတရားပါ။
+Report တင်ဖို့ ၃ ရက်အချိန်ပေးရင် ၃ ရက်ကြာပါလိမ့်မယ်။
+ကိုယ့်ကိုယ်ကို "ဒီနေ့ နေ့လယ် ၁၂ နာရီ အပြီးလုပ်မယ်" လို့ Deadline အကျပ်ပေးလိုက်ပါ။ ဦးနှောက်က အလိုလို ဖြတ်လမ်း (Shortcut) တွေကို ရှာဖွေလာပါလိမ့်မယ်။
+💡 Leader's Note:
+Management က သင့်ကို "ကွန်ပျူတာရှေ့မှာ အကြာကြီးထိုင်နေဖို့" လစာပေးထားတာ မဟုတ်ပါဘူး။ "ရလဒ်ထွက်ဖို့" ပေးထားတာပါ။
+Formula တွေ၊ Automation တွေ လေ့လာနေရတယ်ဆိုတာ "Data ကို ရူးသွပ်လွန်းလို့" (သို့) "Data Career မို့လို့" သက်သက် မဟုတ်ပါဘူး။
+"အချိန်ကို တန်ဖိုးထားတတ်လို့" နဲ့ "Smart ကျကျ တွေးခေါ်မြော်မြင်တတ်တဲ့ Intelligence ရှိလို့" ဖြစ်ပါတယ်။
+မနက်ဖြန်ကစပြီး Hard Work အစား Smart Work ကို စတင်လိုက်ကြရအောင်။
+မနက်ဖြန် (Day 13) မှာတော့...
+Data တွေ ဘယ်လောက်ကောင်းကောင်း၊ နားလည်အောင် တင်ဆက်မပြနိုင်ရင်  အလကားပါပဲ။ ဒါကြောင့် "Presentation Skills: အစည်းအဝေးမှာ လူတွေငေးမသွားအောင် Data နဲ့ ဘယ်လို ပြောမလဲ?" ခေါင်းစဉ်ကို ဆွေးနွေးကြမယ်။
+See you in Day 13!
+#TheInsightsSolution #LeadersNote #Day12 #TimeManagement #SmartWork #Efficiency #Productivity #CareerGrowth</t>
+  </si>
+  <si>
+    <t>Meeting မှာ Data နဲ့ ပြောတဲ့အခါ လူတွေ "ငေး" သွားအောင် ဘယ်လိုပြောမလဲ?
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+Data Analyst တစ်ယောက်၊ Manager တစ်ယောက်အနေနဲ့ အကြီးမားဆုံး စိန်ခေါ်မှုက Excel ဖိုင်ထဲက အဖြေကို Meeting ခန်းထဲ ရောက်အောင် ယူသွားခြင်းပါပဲ။
+များသောအားဖြင့် Junior တွေ Presentation လုပ်ရင် လူကြီးတွေ ပျင်းကြတယ်။ ဖုန်းပွတ်ကြတယ်။ ဘာလို့လဲ?
+❌ သူတို့က Slide ပေါ်က ဂဏန်းတွေကို လိုက်ဖတ်ပြနေလို့ပါ။
+"ဇန်နဝါရီလမှာ Sales က ၁၀၀ ရပါတယ်၊ ဖေဖော်ဝါရီလမှာ ၁၀၅ ရပါတယ်..." (ဒါက Robot ပြောတာနဲ့ အတူတူပါပဲ)။
+Senior Level ရောက်ချင်ရင် "Storytelling Framework" (၃) ဆင့်ကို သုံးပြီး ပြောတတ်ရပါမယ်
+✅ 1. What? (ဘာဖြစ်ခဲ့လဲ - The Fact)
+ဂဏန်းအတိအကျကို ပြောပါ။
+"ပြီးခဲ့တဲ့လက ကျွန်တော်တို့ရဲ့ PAR (အကြွေးဆပ်နောက်ကျနှုန်း) က 2% ကနေ 5% ကို တက်လာပါတယ်။"
+✅ 2. So What? (အဲဒီတော့ ဘာဖြစ်လဲ - The Impact)
+ဒီဂဏန်းရဲ့ အဓိပ္ပာယ်နဲ့ သက်ရောက်မှုကို ရှင်းပြပါ။
+"ဒါဟာ အန္တရာယ်ရှိတဲ့ Red Flag ဖြစ်ပါတယ်။ ဒီအတိုင်းဆက်သွားရင် လာမယ့် Quarter မှာ အမြတ်ငွေ (Profit) ၂၀% လောက် ထိခိုက်သွားနိုင်ပါတယ်။"
+✅ 3. Now What? (အခု ဘာလုပ်ကြမလဲ - The Action)
+Recommendation ပေးပါ။ Data သမားနဲ့ Leader ကွာခြားချက်က ဒီနေရာပါပဲ။
+"ဒါကြောင့် Collection Team ကို Zone A ဘက် ပိုအာရုံစိုက်ခိုင်းဖို့ အကြံပြုလိုပါတယ်။"
+💡 Leader's Note:
+Slide တစ်ခုကို ပြလိုက်ရင် လူကြီးတွေက "ဂဏန်းတွေ" ကို မြင်ချင်တာ မဟုတ်ပါဘူး။ "ဆုံးဖြတ်ချက် (Decision)" ကို မြင်ချင်တာပါ။
+Data ဆိုတာ "ပါဝင်ပစ္စည်း" (Ingredient) ပဲ ရှိပါသေးတယ်။
+သင်က အဲဒီ Data ကို ချက်ပြုတ်ပြီး "Insight" ဆိုတဲ့ ဟင်းပွဲအဖြစ် တည်ခင်းဧည့်ခံနိုင်မှသာ Meeting မှာ လူတွေ ငေးကြည့်မယ့် Speaker တစ်ယောက် ဖြစ်လာမှာပါ။
+မနက်ဖြန် (Day 14) မှာတော့...
+Data သမားတွေ စကားပြောရင် IT ဆန်လွန်းပြီး သူများနားမလည်တာကို ဖြေရှင်းဖို့ "Communication: Data သမားတွေ စကားပြောရင် လူနားလည်အောင် ဘယ်လိုပြောမလဲ?" ကို ဆက်ဆွေးနွေးကြမယ်။
+See you in Day 14!
+#TheInsightsSolution #LeadersNote #Day13 #PresentationSkills #DataStorytelling #PublicSpeaking #Management #CareerGrowth</t>
+  </si>
+  <si>
+    <t>🗣️ Data သမားတွေ စကားပြောရင် လူတိုင်းနားလည်အောင် ဘယ်လိုပြောမလဲ? (The Art of Translation)
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+ကျွန်တော်တို့ Data သမားတွေ၊ Tech သမားတွေမှာ မသိလိုက်ဘဲ သုံးမိနေတတ်တဲ့ အလေ့အကျင့်တစ်ခု ရှိပါတယ်။ အဲဒါကတော့ "Technical Jargon" (IT ဝေါဟာရ) တွေကို နေရာတကာမှာ သုံးမိနေခြင်းပါပဲ။
+Meeting ခန်းထဲရောက်တဲ့အခါ ဒီလိုတွေ ပြောမိဖူးလား?
+❌ "ဒီ Data ကို SQL Query ရေးပြီး Join လိုက်ရင် Error တက်နေလို့ Debug လုပ်နေပါတယ်။"
+❌ "Regression Analysis အရ Correlation Coefficient က 0.8 ရှိပါတယ်။"
+Business Leader တွေ၊ Manager တွေက ဒါတွေကို ချက်ချင်း နားမလည်နိုင်ကြပါဘူး။ နားမလည်ရင် ဆုံးဖြတ်ချက်ချဖို့ နှောင့်နှေးသွားနိုင်ပါတယ်။
+ဒါကြောင့် Senior Level ရောက်ချင်ရင် "Translator" (ဘာသာပြန်သူ) တစ်ယောက်လို တွေးခေါ်ပြောဆိုတတ်ရပါမယ်။
+✅ Example 1:
+(Technical): "SQL Query run တာ ကြာနေလို့ပါ။"
+(Business): "Data ပမာဏ များနေတဲ့အတွက် အဖြေထုတ်ဖို့ ၁၀ မိနစ်လောက် စောင့်ရပါမယ်။"
+✅ Example 2:
+(Technical): "Correlation 0.8 ရှိတဲ့အတွက် Positive Relationship ရှိပါတယ်။"
+(Business): "Marketing စရိတ် များများသုံးလေ၊ အရောင်း ပိုတက်လေ ဖြစ်နေတာကို တွေ့ရပါတယ်။"
+💡 Leader's Note:
+ကိုယ့်စကားကို တဖက်လူ နားမလည်သေးရင် "သူတို့ မသိတာ" မဟုတ်ဘဲ "ကိုယ် ရှင်းပြတာ လိုအပ်ချက်ရှိနေသေးလို့" ဖြစ်နိုင်ပါတယ်။
+Technical Terms တွေကို Meeting ခန်းအပြင်မှာ ထားခဲ့ပါ။ Meeting ခန်းထဲရောက်ရင် "Business Value" (အမြတ်၊ အရှုံး၊ အချိန်၊ လူအင်အား) ဆိုတဲ့ ဘာသာစကားနဲ့ပဲ ပြောပါ။
+ဒါမှ သင်ဟာ "ကွန်ပျူတာသမား" မဟုတ်ဘဲ "မန်နေဂျာ" တစ်ယောက် ဖြစ်လာမှာပါ။
+🚀 Learning Opportunity:
+ဒီလို Business Mindset ရော၊ Technical Skill ပါ တွဲဖက်လေ့လာချင်သူများအတွက်...
+1️⃣ Excel for Business Management (EFBM) Video Class တက်ရောက်လိုပါက Comment မှာ Google Form Link ယူပြီး စာရင်းပေးသွင်းနိုင်ပါတယ်ခင်ဗျာ။ 📥
+2️⃣ Power BI Basic to Master (January Intake) Live Class အတန်းသစ်ကိုလည်း မကြာခင် ကြော်ငြာပေးတော့မှာမို့ စောင့်မျှော်ပေးကြပါဦးနော်။ 🔥
+မနက်ဖြန် (Day 15) မှာတော့...
+Manager ကောင်းတစ်ယောက်ရဲ့ အမှတ်အသားဖြစ်တဲ့ "Integrity: မသိရင် 'မသိဘူး' ပြောပါ၊ ခန့်မှန်းပြီး မပြောပါနဲ့" ဆိုတဲ့ ခေါင်းစဉ်ကို ဆွေးနွေးကြမယ်။
+See you in Day 15!
+#TheInsightsSolution #LeadersNote #Day14 #CommunicationSkills #NoJargon #BusinessLanguage #DataTranslation #CareerGrowth See less</t>
+  </si>
+  <si>
+    <t>🛡️ မသေချာရင် ခန့်မှန်းမပြောပါနဲ့... (ဒီနည်းလမ်းကို သုံးပါ)
+မင်္ဂလာပါ... "The Insights Solution" မှ ကြိုဆိုပါတယ်။
+Data Analyst တစ်ယောက်ရဲ့ တန်ဖိုးအရှိဆုံး ပိုင်ဆိုင်မှုက Skill တစ်ခုတည်း မဟုတ်ပါဘူး။ "Credibility" (ယုံကြည်အားထားရမှု) ဖြစ်ပါတယ်။
+Meeting တစ်ခုမှာ Boss က မေးခွန်းတစ်ခု ရုတ်တရက် မေးလိုက်တယ်ဆိုပါစို့။
+"မန္တလေးရုံးခွဲရဲ့ ဒီလ PAR က ဘယ်လောက်လဲ?"
+ကိုယ့်ခေါင်းထဲမှာ ဂဏန်းအတိအကျ မရှိသေးတဲ့အချိန်...
+Boss စိတ်ကျေနပ်အောင် (သို့) အဖြေမြန်မြန်ပေးချင်တဲ့ စေတနာနဲ့...
+❌ "၃ ရာခိုင်နှုန်းလောက် ရှိမယ်ထင်ပါတယ် Boss" လို့ ခန့်မှန်းပြီး (Guess) ဖြေလိုက်မိလား?
+ဒီလိုဖြေလိုက်တာက Data Career မှာ အန္တရာယ်ရှိတဲ့ Red Zone ထဲ ဝင်လိုက်တာပါပဲ။
+တကယ်လို့ အဖြေမှန်က 5% ဖြစ်နေခဲ့ရင်... Boss က ကိုယ်ပြောတဲ့ 3% ပေါ်မူတည်ပြီး Strategy တွေ လွဲမှားစွာ ချမှတ်မိနိုင်ပါတယ်။
+နောက်တစ်ခါ ကိုယ်တင်ပြတဲ့ Data တွေအပေါ် ယုံကြည်မှု (Credibility) လျော့နည်းသွားနိုင်ပါတယ်။
+Senior Level ရောက်ချင်ရင် "မသေချာရင် အတည်ပြုပြီးမှ (Verify) ပြောတတ်တဲ့ အလေ့အကျင့်" ရှိရပါမယ်။
+✅ Professional ကျကျ ပြန်လည်ဖြေကြားနည်း:
+"Boss... ဒီဂဏန်းက အရမ်းအရေးကြီးတဲ့အတွက် တိကျမှန်ကန်မှုကို ဦးစားပေးချင်လို့ပါ (Accuracy First)။ Meeting ပြီးတာနဲ့ ၁၀ မိနစ်အတွင်း Double Check လုပ်ပြီး Email ပို့ပေးပါရစေခင်ဗျာ။"
+ဒါဟာ မသိတာမဟုတ်ပါဘူး။ Integrity (ဖြောင့်မတ်မှန်ကန်မှု) ရှိတာပါ။ Boss တွေက ရမ်းပြောတဲ့သူထက်၊ သေချာမှ ပြောတဲ့သူကို ပိုတန်ဖိုးထားပါတယ်။
+💡 Leader's Note:
+Data လောကမှာ "အမှား (Wrong Data)" က "Data မရှိတာ (No Data)" ထက် ပိုကြောက်စရာကောင်းပါတယ်။
+ခန့်မှန်းပြီး ဖြေလိုက်တဲ့ တစ်ခွန်းက သင် နှစ်ပေါင်းများစွာ တည်ဆောက်ထားတဲ့ Trust ကို ထိခိုက်စေနိုင်ပါတယ်။
+"Don't Guess. Verify." (မခန့်မှန်းပါနဲ့။ အတည်ပြုပါ။)
+🚀 Learning Opportunity:
+Data တွေကို တိတိကျကျ၊ မှန်မှန်ကန်ကန် တွက်ချက်နိုင်ဖို့ အခြေခံကောင်းတွေ လိုအပ်နေပြီလား?
+1️⃣ Excel for Business Management (EFBM) Video Class တက်ရောက်လိုပါက Comment မှာ Google Form Link ယူပြီး စာရင်းပေးသွင်းနိုင်ပါတယ်ခင်ဗျာ။ 📥
+2️⃣ Power BI Basic to Master (January Intake) Live Class အတန်းသစ်ကိုလည်း မကြာခင် ကြော်ငြာပေးတော့မှာမို့ စောင့်မျှော်ပေးကြပါဦးနော်။ 🔥
+မနက်ဖြန် (Day 16) မှာတော့...
+Data သမားတစ်ယောက်ရဲ့ တာဝန်ယူစိတ်ကို တိုင်းတာမယ့် "Ownership: Data Entry သမားနဲ့ Data Analyst တို့ရဲ့ ကွာခြားချက်" အကြောင်း ဆက်ပြောပြပါမယ်။
+See you in Day 16!
+#TheInsightsSolution #LeadersNote #Day15 #DataIntegrity #TrustBuilding #Professionalism #CareerAdvice #Microfinance See less</t>
+  </si>
+  <si>
+    <t>အသက် ၃၀ ကျော်မှ Data လေ့လာလို့ ရမလား? ⏳🚀
+"ကိုအာကာရေ... ကျနော်/ကျမ အသက် ၃၀ ကျော်နေပြီ၊ အခုမှ Data Analysis ကို စလေ့လာရင် နောက်ကျနေပြီလား?"
+ကျနော့်ဆီကို မကြာခဏ ရောက်လာတတ်တဲ့ ဒီမေးခွန်းအတွက် ကျနော့်အဖြေကတော့ -
+"လုံးဝ နောက်မကျပါဘူး မိတ်ဆွေ... မိတ်ဆွေတို့က လူငယ်တွေထက်တောင် ပိုပြီး အားသာချက် ရှိပါသေးတယ်" ဆိုတာပါပဲ။
+ဘာကြောင့်လဲ? (The "So What?")
+Data Analysis ဆိုတာ Coding (နည်းပညာ) သက်သက် မဟုတ်ပါဘူး။ Context (လုပ်ငန်းသဘောတရား) နားလည်မှုက ပိုအရေးကြီးပါတယ်။
+🔹 လူငယ်တွေက Tool (လက်နက်) ကို ကျွမ်းကျင်ကြတယ်။
+🔹 မိတ်ဆွေတို့ကတော့ "Business Problem" (ပြဿနာရဲ့ အရင်းအမြစ်) ကို ကောင်းကောင်း နားလည်ပြီးသား ဖြစ်နေပါပြီ။
+ဒါကြောင့် မိတ်ဆွေရဲ့ "ရင့်ကျက်တဲ့ လုပ်ငန်းအတွေ့အကြုံ" နဲ့ "Data Skill" သာ ပေါင်းစပ်လိုက်မယ်ဆိုရင်... လုပ်ငန်းခွင်မှာ တကယ့်ကို အားကိုးရတဲ့ Senior တစ်ယောက် ဖြစ်လာမှာ သေချာပါတယ်။
+ဘယ်လို စတင်ကြမလဲ? (The "Now What?")
+အသက် ၃၀ ကျော်မှ စလေ့လာမယ့် မိတ်ဆွေများအတွက် Smart Way လေး မျှဝေပေးချင်ပါတယ်။
+Start with Logic: Python/SQL လို Code တွေထက်၊ Logic စဉ်းစားလို့ကောင်းတဲ့ Excel ကနေ စတင်ပါ။
+Focus on Solutions: Formula တွေကို အလွတ်ကျက်တာထက် "ဒီ Function က ငါ့အလုပ်ကို ဘယ်လိုကူညီနိုင်မလဲ" ဆိုတဲ့ အဖြေကို ရှာပါ။
+Visual Impact: Data ကို Report ကောင်းကောင်းလုပ်နိုင်ဖို့ Power BI လို Tool မျိုးကို ထပ်ဖြည့်ပါ။ ဒါက မိတ်ဆွေရဲ့ Experience ကို တောက်ပလာစေပါလိမ့်မယ်။
+အသက်အရွယ်ဆိုတာ ကိန်းဂဏန်း (Number) တစ်ခုပါပဲ။
+Data လောကမှာ အရေးကြီးတာ Number မဟုတ်ပါဘူး၊ အဲဒီ Number ထဲက ထွက်လာတဲ့ Insight (တန်ဖိုး) ပါ။ ✨
+ကဲ... မိတ်ဆွေရဲ့ အတွေ့အကြုံတွေကို Data Skill နဲ့ ပေါင်းစပ်ပြီး Management Level ကို ယုံကြည်မှုရှိရှိ တက်လှမ်းလိုက်ကြရအောင်ဗျာ။
+💡 Call to Action
+✅ Foundation ပိုင်ချင်သူများအတွက် (Video Class):
+Management Level မှာ မဖြစ်မနေသိထားသင့်တဲ့ Excel Logic တွေကို လေ့လာချင်ရင် "Excel for Business Management" အတန်းကို Join ထားနိုင်ပါတယ်။
+👉 Register link in comment
+🚀 Next Level တက်ချင်သူများအတွက် (Coming Soon):
+Reporting ပိုင်းကို ကျွမ်းကျင်ပြီး Decision Maker တွေ သဘောကျမယ့် Dashboard တွေ ဖန်တီးချင်ရင် "Power BI Basic to Master (Jan Intake)" အတွက် ပြင်ဆင်ထားကြနော်။ လူဦးရေကန့်သတ်ထားလို့ မကြာခင် ကြေညာပေးပါမယ်။
+#TheInsightsSolution #DataInsightsWithArkar #LeadersNote #Day16 #LifelongLearning #Excel #PowerBI See less</t>
+  </si>
+  <si>
+    <t>Senior တွေက မျက်လုံးမှော် ရှိတာလား? (The Power of Detail) 🔍✨
+"ဆရာအာကာ... ကျနော် Report တင်လိုက်ရင် ကျနော့ဆရာက တစ်ချက်ကြည့်လိုက်တာနဲ့ အမှားကို တန်းမြင်တယ်။ မျက်လုံးမှော် ရှိတာလားဗျ?"
+လူငယ်တွေ မေးတတ်တဲ့ ဒီမေးခွန်းကို ကျနော် ပြုံးပြီး ခေါင်းခါမိပါတယ်။
+ဒါဟာ မှော်ပညာ မဟုတ်ပါဘူး။ ဒါဟာ "Detail Oriented" (အသေးစိတ် ဂရုစိုက်တတ်ခြင်း) ဆိုတဲ့ အလေ့အကျင့်တစ်ခုပါ။
+အသေးစိတ် ဂရုစိုက်ခြင်းက ဘာလို့ အရေးကြီးတာလဲ? (The "So What?")
+Data လောကမှာ "ယုံကြည်မှု (Trust)" ဆိုတာ တည်ဆောက်ဖို့ နှစ်ချီကြာပေမယ့် ဖျက်ဖို့က စက္ကန့်ပိုင်းပဲ လိုပါတယ်။
+Report တစ်ခုလုံး ဘယ်လောက်ကောင်းကောင်း...
+❌ Total ပေါင်းခြင်းလွဲနေရင်၊
+❌ Unit မှားတပ်ထားရင် (USD လား၊ MMK လား)၊
+❌ Spelling အမှားပါနေရင်...
+မိတ်ဆွေရဲ့ ကြိုးစားမှုတွေ အရာမထင်တော့ပါဘူး။ Boss တွေက Data ကို မယုံတော့ရင်၊ မိတ်ဆွေကိုပါ မယုံတော့ပါဘူး။
+Senior Level ရောက်ဖို့ ဘာတွေ ပြင်ရမလဲ? (The "Now What?")
+Senior တွေရဲ့ "မျက်လုံးမှော်" ကို မိတ်ဆွေလည်း ရယူနိုင်ပါတယ်။ ဒီအချက် (၃) ချက်ကို Report မပို့ခင် အမြဲစစ်ပါ။
+🤔The "Sanity Check": ဂဏန်းတွေက ဖြစ်နိုင်ချေရှိရဲ့လား? (ဥပမာ - လစဉ်ရောင်းအား သိန်း ၁၀၀၀ ရှိရာကနေ သိန်း ၁၀၀ ဖြစ်နေရင် Formula မှားနေတာလား ပြန်စစ်ပါ။)
+🧐Formatting Consistency: Font တွေ ညီရဲ့လား? နေရာလွတ် (Spacing) တွေ ညီရဲ့လား? သပ်ရပ်မှုက Professional ဆန်ခြင်းရဲ့ ပြယုဂ်ပါ။
+✅The Zero Test: Total တွေကို ပြန်ပေါင်းကြည့်ပါ။ (အလျားလိုက်ပေါင်းခြင်း နဲ့ ဒေါင်လိုက်ပေါင်းခြင်း ညီကိုညီရပါမယ်။)
+"Devil is in the details" ဆိုတဲ့ စကားအတိုင်းပါပဲ။
+အသေးစိတ်အချက်လေးတွေကို ဂရုစိုက်ခြင်းက မိတ်ဆွေကို "သာမန် ဝန်ထမ်း" အဆင့်ကနေ "အားကိုးရတဲ့ ခေါင်းဆောင်" အဆင့်ကို တွန်းပို့ပေးပါလိမ့်မယ်။
+ကဲ... မိတ်ဆွေကော ကိုယ့် Report ကို မပို့ခင် ဘယ်နှခါ ပြန်စစ်လေ့ရှိလဲ? 🧐
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Comment မှာ Register link မျှဝေပေးထားသည်❤️
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#TheInsightsSolution #LeadersNote #DetailOriented #CareerGrowth See less</t>
+  </si>
+  <si>
+    <t>ကွင်းဆင်း (Field) နဲ့ ရုံးချုပ် (HQ) ပေါင်းစပ်လိုက်တဲ့အခါ... 🤝🚀
+"Field က လက်တွေ့မြေပြင်ကို သိတယ်။ HQ က မဟာဗျူဟာကို မြင်တယ်။ ဒီနှစ်ခု ပေါင်းစပ်လိုက်ရင် ဘာဖြစ်သွားမလဲ?"
+ကျွန်တော်တို့ Data Management မှာ အမြဲကြုံရတတ်တဲ့ စိန်ခေါ်မှုတစ်ခုကတော့ - Context (လုပ်ငန်းသဘောတရား) မတူညီခြင်းပါပဲ။
+ကွင်းဆင်းဝန်ထမ်းတွေက "လက်တွေ့အခြေအနေ" (Reality) မှာ အလုပ်လုပ်ရပြီး၊ ရုံးချုပ်ဝန်ထမ်းတွေက "ဒေတာအချက်အလက်" (Logic) နဲ့ အလုပ်လုပ်ကြပါတယ်။
+ဒီကွာခြားချက်ကို "အားနည်းချက်" လို့ မမြင်ဘဲ "အားသာချက်" အဖြစ် ဘယ်လိုပြောင်းလဲကြမလဲ?
+The Power of Synergy (ပူးပေါင်းဆောင်ရွက်ခြင်း)
+Data Leader ကောင်းတစ်ယောက်က ဒီနှစ်ဖက်ကို "တံတားခင်းပေးသူ" ဖြစ်ရပါမယ်။
+၁။ Respect the Context (နားလည်မှုပေးပါ):
+Data တစ်ခုတောင်းတော့မယ်ဆိုရင် Deadline ကိုပဲ ကြည့်မနေဘဲ... "ကျွန်တော်တို့ Field Team တွေ ဘယ်အချိန်ဆိုရင် အလုပ်ပါးမလဲ၊ သူတို့ အဆင်ပြေမယ့်အချိန်က ဘယ်အချိန်လဲ" ဆိုတာကို ထည့်သွင်းစဉ်းစားပေးပါ။ ဒါဟာ Mutual Respect ပါ။
+၂။ Simplify the Process (လွယ်ကူအောင် ကူညီပါ):
+နေပူမိုးရွာထဲ သွားလာနေရတဲ့သူတွေအတွက် Excel Table ကြီးတွေထက်၊ ဖုန်းထဲကနေ လက်တစ်ဖက်တည်းနဲ့ နှိပ်လို့ရတဲ့ Mobile-Friendly Form လေးတွေ ဖန်တီးပေးတာက HQ Team ရဲ့ တကယ့် Support ပါပဲ။
+၃။ Share the Victory (အောင်မြင်မှုကို မျှဝေပါ):
+Field က ပို့လိုက်တဲ့ Data ကြောင့် ကုမ္ပဏီက ဆုံးဖြတ်ချက်မှန်သွားတဲ့အခါ... "ခင်ဗျားတို့ ပို့ပေးတဲ့ Data ကြောင့် ကျွန်တော်တို့ ဒီ Project အောင်မြင်သွားပြီ" ဆိုပြီး Credit ပေးပါ။
+Leader's Note:
+ရုံးချုပ် (HQ) ဆိုတာ ခန္ဓာကိုယ်ရဲ့ "ဦးနှောက်" ဖြစ်ပြီး၊ ကွင်းဆင်း (Field) ဆိုတာ ခန္ဓာကိုယ်ရဲ့ "လက်မောင်း" တွေပါပဲ။ ဦးနှောက်က လမ်းညွှန်၊ လက်မောင်းက လုပ်ဆောင်မှသာ ခရီးရောက်မှာ ဖြစ်ပါတယ်။
+ကဲ... မိတ်ဆွေတို့ကော ကိုယ့် Team မှာ ဒီလို Harmony ဖြစ်အောင် Data ကို ဘယ်လိုအသုံးချနေလဲ? အမြင်လေးတွေ ဖလှယ်ပေးသွားပါဦးဗျာ။ 👇
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Comment မှာ Register link မျှဝေပေးထားသည်❤️
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#TheInsightsSolution #DataInsightsWithArkar #LeadersNote #Day19 #FieldAndHQ #TeamSynergy #PositiveLeadership</t>
+  </si>
+  <si>
+    <t>Leader's Note Serie ရက် (၂၀) ကြာ ခရီးစဉ်... မိတ်ဆွေ ဘာတွေရလိုက်လဲ? 🛣️✨
+"Data ဆိုတာ Excel ဇယားကွက်တွေသက်သက် မဟုတ်ဘူး။ Data ဆိုတာ တွေးခေါ်ပုံ (Mindset) တစ်ခုဖြစ်တယ်။"
+လွန်ခဲ့တဲ့ ရက် (၂၀) လုံးလုံး... ကျွန်တော်တို့အတူတူ ခရီးနှင်ခဲ့ကြတယ်။
+🔹 Career Growth: Junior ဘဝကနေ Senior ဖြစ်အောင် ဘယ်လိုကြိုးစားမလဲ?
+🔹 Soft Skills: Report ကောင်းကောင်း ဘယ်လိုရေးမလဲ? Presentation ဘယ်လိုလုပ်မလဲ?
+🔹 Management: Field နဲ့ HQ ကြား၊ Boss နဲ့ ဝန်ထမ်းကြား ဘယ်လို တံတားခင်းမလဲ?
+ဒါတွေအားလုံးဟာ Data Analyst တစ်ယောက်မှာ ရှိသင့်တဲ့ "Foundation" (အုတ်မြစ်) တွေဖြစ်ပါတယ်။ အုတ်မြစ်ခိုင်မှ တိုက်ဆောက်လို့ ရမှာလေနော်။
+Next Chapter: The Real Technical Game 🔥
+မနက်ဖြန် (Day 21) ကစပြီးတော့ ကျွန်တော်တို့ Phase 2: Excel Professional Series ကို စတင်တော့မှာပါ။
+Mindset ပြင်ပြီးပြီဆိုတော့... လက်နက်တပ်ဆင်ကြတော့မယ်။
+✅ Formula အလန်းတွေ
+✅ Reporting Technics တွေ
+✅ Dashboard Secrets တွေ လာပါတော့မယ်။
+Your Turn! (မိတ်ဆွေရဲ့ အလှည့်)
+ပြီးခဲ့တဲ့ (၁၉) ရက်တာ "Leaders' Note" တွေထဲမှာ... မိတ်ဆွေအတွက် အကြိုက်ဆုံး/အထိမိဆုံး ခေါင်းစဉ် က ဘာဖြစ်မလဲ?
+(ဥပမာ - Day 3: Storytelling လား? Day 18: Detail Oriented လား?)
+Comment မှာ ပြန်မျှဝေပေးခဲ့ပါဦး။ မိတ်ဆွေတို့ရဲ့ Feedback က Phase 2 အတွက် အားဆေးပါပဲဗျာ။ 👇
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Comment မှာ Register link မျှဝေပေးထားသည်❤️
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#Excel #business #insight #Solutions #leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report တစ်စောင်ကို လက်မှတ်မထိုးခင် အချိန်လေး ခဏလောက် ပေးကြည့်လိုက်ပါ။ ⏳
+မန်နေဂျာတစ်ယောက်ဖြစ်တဲ့ မိတ်ဆွေဆီကို နေ့စဉ် Report ပေါင်းစုံ ရောက်လာနေမှာပါ။
+အဲ့ဒီ Report တွေကို စစ်ဆေးတဲ့အခါ မိတ်ဆွေက "Accuracy" (ကိန်းဂဏန်း မှန်/မမှန်) ကို သေချာစိစစ်လေ့ရှိတာ ကျွန်တော်တို့ သိပါတယ်။
+ဒါက မန်နေဂျာကောင်းတစ်ယောက်ရဲ့ တာဝန်ကျေပွန်မှုပါပဲ။ ✅
+ဒါပေမဲ့... မိတ်ဆွေရဲ့ စီမံခန့်ခွဲမှုစွမ်းရည်ကို နောက်ထပ်အဆင့်တစ်ခု မြှင့်တင်ဖို့အတွက် ဒီကိန်းဂဏန်းတွေအပေါ်မှာ "Strategic View" (မဟာဗျူဟာအမြင်) လေး နည်းနည်းလောက် ထပ်ဖြည့်စွက်ကြည့်ရအောင်။
+အချက်အလက်တွေ မှန်ကန်နေပြီဆိုရင်၊ ဒီမေးခွန်း (၃) ခုနဲ့ ထပ်ဆင့် စဉ်းစားလိုက်တာနဲ့ မိတ်ဆွေရဲ့ ဆုံးဖြတ်ချက်တွေက ပိုပြီး ပြည့်စုံသွားပါလိမ့်မယ်။
+1️⃣ "So What?"
+ရောင်းအား (၅၀၀) ဆိုတာ သိရုံနဲ့ မရပ်ဘဲ၊ "ဒါဟာ ငါတို့ရည်မှန်းချက်နဲ့ ယှဉ်ရင် ဘယ်လိုအခြေအနေလဲ" လို့ ဆက်တွေးကြည့်ပါ။ Context ထည့်လိုက်တာနဲ့ ကိန်းဂဏန်းတွေက အသက်ဝင်လာပါလိမ့်မယ်။
+2️⃣ "Why?"
+ဖြစ်ပျက်ခဲ့တဲ့ အကြောင်းရင်းကို ရှာဖွေပါ။ "ဘာကြောင့် ဒီလိုဖြစ်တာလဲ" ဆိုတဲ့ အဖြေပါလာရင် မိတ်ဆွေရဲ့ Report က သာမန်စာရွက်တစ်ရွက် မဟုတ်တော့ပါဘူး။
+3️⃣ "Now What?"
+ဒါက မိတ်ဆွေရဲ့ အခန်းကဏ္ဍပါပဲ။ "ငါတို့အဖွဲ့ ရှေ့ဆက် ဘာလုပ်ကြမလဲ" ဆိုတဲ့ Action Plan လေး ချမှတ်လိုက်ပါ။
+💡 Leader's Note:
+မိတ်ဆွေက အခုလည်း တော်ပြီးသား Manager တစ်ယောက်ပါ။
+ဒါပေမဲ့ ဒီအချက်လေးတွေကိုပါ ဖြည့်စွက်လိုက်မယ်ဆိုရင်တော့... "ကိန်းဂဏန်းတွေကို စစ်ဆေးသူ" အဆင့်ကနေ "အဖွဲ့အစည်းကို ဦးဆောင်လမ်းပြသူ" အဖြစ် ပိုမိုတောက်ပလာမှာ သေချာပါတယ်။ ✨
+မိတ်ဆွေရော... ကိုယ့်ရုံးက တက်လာတဲ့ Report တွေကိုကြည့်ပြီး Decision ချရတာ လွယ်ကူရဲ့လား? Comment မှာ ဆွေးနွေးပေးသွားပါဦး။ 👇
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Comment မှာ Register link မျှဝေပေးထားသည်❤️
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#Excel #business #insight #Solutions #leadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Excel တစ်ခုတည်းနဲ့ မလုံလောက်တော့တဲ့ခေတ်
+(Data Analyst Career Roadmap 2026) 📊🚀
+"ငါ အခု ဘယ် Level မှာ ရောက်နေပြီလဲ?"
+ဒီနေ့ Holiday မှာ နားနေရင်း... ကိုယ့်ရဲ့ Career ကို ပြန်သုံးသပ်ကြည့်ချင်တဲ့ မိတ်ဆွေများအတွက် Data လောကရဲ့ "လမ်းပြမြေပုံ (Roadmap)" လေးတစ်ခုကို မျှဝေပေးချင်ပါတယ်။
+#Professional Data Analyst တစ်ယောက်ဖြစ်ဖို့ ဒီအဆင့် (၄) ဆင့်ကို ကျော်ဖြတ်ရပါမယ်။ (Checklist လုပ်ကြည့်ကြစို့) 👇
+✅ Level 1: The Operator (Foundation)
+Coding တွေ မလိုပါဘူး။ "Data တွေကို ဘယ်လို စနစ်တကျ သိမ်းမလဲ" ဆိုတဲ့ Logic က အဓိကပါ။
+Must Know: VLOOKUP, Pivot Table, IF Condition.
+Target: လုပ်ငန်းခွင်သုံး Data တွေကို ဇယားဆွဲ၊ စာရင်းချုပ်နိုင်ပြီလား?
+✅ Level 2: The Automator (Power Query)
+Copy-Paste လုပ်နေရတုန်းလား? ဒါဆို Level 1 မှာပဲ ရှိပါသေးတယ်။
+Must Know: Data Cleaning, Appending, Merging with Power Query.
+Target: တစ်နာရီကြာတဲ့အလုပ်ကို ၅ မိနစ်နဲ့ ပြီးအောင် လုပ်နိုင်ပြီလား?
+✅ Level 3: The Architect (Data Modeling)
+ဒါက Analyst အစစ်နဲ့ သာမန် Excel သမား ကွဲသွားတဲ့အဆင့်ပါ။
+Must Know: Relationships (Table ချိတ်ဆက်ခြင်း), Star Schema.
+Target: ဖိုင်တွေအများကြီးကို မဖွင့်ဘဲ၊ Data Model တစ်ခုတည်းကနေ အဖြေထုတ်နိုင်ပြီလား?
+✅ Level 4: The Storyteller (Visualization &amp; Power BI)
+တွက်ချက်ထားသမျှကို လူကြီးနားလည်အောင် ပြနိုင်မှ နေရာရမှာပါ။
+Must Know: Interactive Dashboards, DAX Measures.
+Target: ဂဏန်းတွေကို ကြည့်ပြီး Decision ချနိုင်မယ့် "Insight" ကို ဖော်ထုတ်ပေးနိုင်ပြီလား?
+💡 Leader's Note:
+Data Skill ဆိုတာ "Optional" (ရှိရင်ကောင်း) မဟုတ်တော့ပါဘူး။ "Essential" (မရှိမဖြစ်) လက်နက်တစ်ခု ဖြစ်လာပါပြီ။
+Level 1 နဲ့ 2 မှာ ရပ်နေရင်တော့... ၂၀၂၅ မှာ Level 3 နဲ့ 4 ကို တက်လှမ်းဖို့ ပြင်ဆင်ထားသင့်ပါပြီ။
+ကဲ... မိတ်ဆွေကော အခု ဘယ် Level မှာ ရောက်နေပြီလဲ?
+(Comment မှာ 1, 2, 3, 4 ဂဏန်းလေး ရေးပြီး ကိုယ့်ကိုယ်ကို Review လုပ်သွားပါဦး) 👇
+🔥 Level Up Your Data Career!
+Data Analysis စွမ်းရည်များကို အခြေခံမှစ၍ Professional အဆင့်ထိ လေ့လာလိုပါသလား?
+TIS Website တွင် မိမိနှင့်ကိုက်ညီမည့် Learning Path ကို ရွေးချယ်ပြီး ယခုပဲ စာရင်းသွင်းလိုက်ပါ။
+🎯 Choose Your Path:
+🟢 Excel (Business Mgmt &amp; Reporting)
+🟡 Power Query (Data Cleaning &amp; Automation)
+🔵 Power BI (Data Modeling &amp; Visualization)
+👇 Start Learning Here: 👇
+(Website Link in Comment Section)
+#Excel #business #insight #Solutions #leadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy Over Tools: အောင်မြင်တဲ့ စီမံခန့်ခွဲသူတွေရဲ့ လျှို့ဝှက်ချက် 🔑🔥
+The Manager's Secret Weapon (VLOOKUP vs XLOOKUP)
+ခေတ်သစ် စီမံခန့်ခွဲသူ (Manager) တစ်ယောက်ရဲ့ တန်ဖိုးဟာ အလုပ်များနေခြင်း (Busy) ထက် အလုပ်တွင်ခြင်း (Productive) အပေါ်မှာ ပိုပြီး မူတည်ပါတယ်။
+ထက်မြတ်တဲ့ Manager တွေဟာ အချိန်ကို ကောင်းမွန်စွာ စီမံခန့်ခွဲနိုင်ရုံတင်မကဘဲ၊ ရှုထောင့်ပေါင်းစုံကနေ စေ့စပ်သေချာစွာ ကြည့်တတ်တဲ့ အလေ့အကျင့်ရှိကြပါတယ်။ ဒီလို "Detail Oriented" ဖြစ်ခြင်းကပဲ စီးပွားရေးကို တိုးတက်အောင် လုပ်နိုင်တဲ့ အောင်မြင်မှု သော့ချက်ပါပဲ။ 📈✨
+ဒါပေမဲ့ ဒီလို ထက်မြတ်မှုတွေကို အထောက်အပံ့ပေးဖို့ Flexibility ရှိတဲ့ လက်နက်ကောင်းတွေလည်း လိုအပ်ပါတယ်။
+VLOOKUP: ကျွန်တော်တို့ရဲ့ မိတ်ဆွေဟောင်း Excel လောကမှာ VLOOKUP ဟာ ဒဏ္ဍာရီတစ်ခုပါ။ Data တွေကို အမြန်ရှာဖွေပေးနိုင်ပြီး အခြေခံ စာရင်းဇယားတွေအတွက် အရမ်းကောင်းတဲ့ Tool တစ်ခု ဖြစ်ခဲ့ပါတယ်။ ဒါပေမဲ့ အပြောင်းအလဲ မြန်တဲ့ လုပ်ငန်းခွင်မှာ VLOOKUP တစ်ခုတည်းနဲ့တင် မလုံလောက်တော့ပါဘူး။
+XLOOKUP: ၃၆၀ ဒီဂရီ ရှာဖွေနိုင်တဲ့ ခေတ်ပေါ်လက်နက်
+🛡️ စီမံခန့်ခွဲသူတွေအတွက် XLOOKUP ဆိုတာ လက်နက်သစ်တစ်ခုထက် ပိုပါတယ်။
+✅ ဘယ်ဘက်/ညာဘက် ကြိုက်တဲ့နေရာက Data ကို ချက်ချင်းဆွဲထုတ်နိုင်တဲ့ Flexibility။
+✅ Column တွေ တိုးလိုက်၊ လျှော့လိုက်လုပ်လည်း Formula မပျက်ဘဲ တည်ငြိမ်နေတဲ့ စွမ်းဆောင်ရည်။
+✅ တိကျမြန်ဆန်တဲ့ ရှာဖွေမှုတွေကနေတစ်ဆင့် ပိုမိုခိုင်မာတဲ့ ဆုံးဖြတ်ချက်တွေကို ချမှတ်နိုင်ပါတယ်။
+💡 Winning Strategy: မိတ်ဆွေရဲ့ ထက်မြတ်တဲ့ Skill နဲ့ မှန်ကန်တဲ့ Tech Tools တွေကို ပေါင်းစပ်လိုက်မယ်ဆိုရင် ဘယ်လို စိန်ခေါ်မှုမျိုးမှာမဆို အမြဲတမ်း "Winning Position" မှာ ရှိနေမှာပါ။
+သင်ယူလိုစိတ် အမြဲရှင်သန်နေတဲ့ Manager တွေအတွက် ဒီနေ့ကစပြီး လက်နက်သစ်ကို တပ်ဆင်လိုက်ရအောင်! 💪🚀
+🔥 Level Up Your Data Career!
+ဒေတာတွေကို စနစ်တကျ အသုံးချပြီး လုပ်ငန်းခွင်မှာ ထူးချွန်သူတစ်ယောက် ဖြစ်လာဖို့ TIS ကူညီပေးပါရစေ။
+🎯 Choose Your Path:
+🟢 Excel (Business Mgmt &amp; Reporting)
+🟡 Power Query (Data Cleaning &amp; Automation)
+🔵 Power BI (Data Modeling &amp; Visualization)
+👇 Start Learning Here: 👇 (Website Link in Comment Section)
+#Excel #business #insight #Solutions #leadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">စနေနေ့ မနက်ခင်းမှာ Excel ဖိုင်တွေနဲ့ အလုပ်များနေတုန်းလား? ☕☀️
+မင်္ဂလာပါ မိတ်ဆွေတို့ရေ...
+အခုလို စနေနေ့မနက်ခင်းမှာ မိတ်ဆွေ ဘာလုပ်နေပါသလဲ? ကော်ဖီလေးသောက်ပြီး အေးဆေးအနားယူနေတာလား? ဒါမှမဟုတ် "တနင်္လာနေ့ အစည်းအဝေး" အတွက် Report တွေကို အသည်းအသန် လိုက်ညှိနေရတုန်းလား? 🤔
+ကျွန်တော်တို့ Data လောကမှာ ဆိုရိုးစကားတစ်ခု ရှိပါတယ်။ "Work Smarter, Not Harder."
+မိတ်ဆွေက လစဉ် Report တွေကို Copy-Paste လုပ်၊ VLOOKUP တွေနဲ့ လက်နဲ့လိုက်ပေါင်းနေရတုန်းဆိုရင်တော့... မိတ်ဆွေရဲ့ တန်ဖိုးရှိလှတဲ့ Weekend တွေက Excel လက်ထဲမှာပဲ ကုန်ဆုံးသွားမှာပါ။ 📉
+ဒါပေမဲ့ Power Query လို Automation လက်နက်တွေကို သုံးတတ်သွားပြီဆိုရင်တော့... ကြာသပတေး၊ သောကြာလောက်ကတည်းက Button လေးတစ်ချက်နှိပ်ရုံနဲ့ Report အဆင်သင့်ဖြစ်နေမှာမို့၊ စနေ၊ တနင်္ဂနွေကို မိသားစုနဲ့အတူ အပြည့်အဝ အနားယူနိုင်မှာ ဖြစ်ပါတယ်။
+💡 Insight of the Day: Skill မြင့်လာတာနဲ့အမျှ အလုပ်ချိန် နည်းသွားရပါမယ်။ Data က မိတ်ဆွေကို အလုပ်များစေတာ မဟုတ်ဘဲ၊ မိတ်ဆွေက Data ကို/နဲ့ ညွှန်ကြားနိုင်သူ ဖြစ်ရပါမယ်။
+ဒီ Weekend မှာတော့ အလုပ်တွေ ခဏမေ့ထားပြီး အားရပါးရ အနားယူလိုက်ကြရအောင်ဗျာ! Happy Weekend ပါ။ ✨
+မိတ်ဆွေရော... Weekend မှာ အလုပ်တွေ ပါလာတတ်လား? ဒါမှမဟုတ် Automation ရဲ့ အကျိုးကျေးဇူးကြောင့် အေးဆေး အနားယူနိုင်ပြီလား? Comment မှာ အတွေ့အကြုံလေးတွေ မျှဝေပေးသွားပါဦး။ 👇
+🔥 Level Up Your Data Career!
+Data Analysis စွမ်းရည်များကို အခြေခံမှစ၍ Professional အဆင့်ထိ လေ့လာလိုပါသလား? TIS Website တွင် မိမိနှင့်ကိုက်ညီမည့် Learning Path ကို ရွေးချယ်ပြီး ယခုပဲ စာရင်းသွင်းလိုက်ပါ။
+🎯 Choose Your Path:
+🟢 Excel (Business Mgmt &amp; Reporting)
+🟡 Power Query (Data Cleaning &amp; Automation)
+🔵 Power BI (Data Modeling &amp; Visualization)
+👇 Start Learning Here: 👇 (Website Link in Comment Section)
+#Excel #business #insight #Solutions #leadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data မသန့်ရင် အဖြေမမှန်ပါ (Garbage In, Garbage Out) 🗑️➡️💎
+"မနက်ဖြန် တနင်္လာနေ့မနက်မှာ Report တက်ခါနီးမှ ပေါင်းလဒ်တွေ လွဲနေလို့ ခေါင်းမီးမတောက်ချင်ဘူး မဟုတ်လား?"
+Excel မှာ အဖြေမှားရတဲ့ အဓိကတရားခံဟာ Formula မှားလို့ မဟုတ်ပါဘူး။ Data မသန့်ရှင်းလို့ (Unclean Data) ဖြစ်နေတတ်ပါတယ်။
+(ဥပမာ - စာလုံးကြားမှာ Space တွေ ပိုနေတာ၊ Format မတူတာ၊ Hidden Character တွေ ပါနေတာမျိုးပေါ့)
+ဒါကို တကူးတက လိုက်ပြင်နေစရာ မလိုပါဘူး။ Professional တစ်ယောက်အနေနဲ့ ဒီ Cleaning Tools (၃) ခု ကို သုံးတတ်ရင် ရပါပြီ။
+🧹 1. TRIM Function:
+နာမည်တွေကြားမှာ Space တွေ ပိုနေလား? =TRIM() ခံလိုက်တာနဲ့ အပို Space တွေ အကုန်ပြောင်သွားပါလိမ့်မယ်။
+✨ 2. Remove Duplicates:
+Data တွေ ထပ်နေလား? Data Tab အောက်က Remove Duplicates ခလုတ်တစ်ချက် နှိပ်လိုက်ရုံနဲ့ Clean ဖြစ်သွားမှာပါ။
+🔍 3. Text to Columns:
+နေ့စွဲ (Date) တွေက Text Format ဖြစ်ပြီး ပေါင်းမရ ဖြစ်နေလား? Text to Columns နဲ့ စက္ကန့်ပိုင်းအတွင်း Date Format အမှန် ပြောင်းပစ်လို့ ရပါတယ်။
+💡 Sunday Tip:
+အိမ်သန့်ရှင်းရေးလုပ်သလိုပဲ၊ Data တွေကိုလည်း သန့်ရှင်းရေးလုပ်ဖို့ လိုပါတယ်။
+ဒီနေ့လို အားလပ်ရက်မှာ ဒီ Technique လေးတွေကို စမ်းကြည့်ထားရင်၊ မနက်ဖြန် ရုံးဖွင့်တဲ့အခါ အလုပ်တွေအများကြီး ပေါ့ပါးသွားပါလိမ့်မယ်။
+🔥 Level Up Your Data Career!
+Data Cleaning မှစ၍ Dashboard ထုတ်သည်အထိ Step-by-Step လေ့လာလိုပါသလား?
+TIS Website တွင် မိမိနှင့်ကိုက်ညီမည့် Learning Path ကို ရွေးချယ်ပြီး ယခုပဲ စာရင်းသွင်းလိုက်ပါ။
+🎯 Choose Your Path:
+🟢 Excel (Business Mgmt &amp; Reporting)
+🟡 Power Query (Data Cleaning &amp; Automation)
+🔵 Power BI (Data Modeling &amp; Visualization)
+👇 Start Learning Here: 👇
+(Website Link: Comment မှာဖော်ပြထားသည်)
+#Excel #business #insight #Solutions #leadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data က အဖြေမဟုတ်ပါ၊ Data ဆိုတာ လမ်းပြမြေပုံပါ
+(One Day, One Insight - Day 1)
+လွန်ခဲ့တဲ့ ရက် (၉၀) လုံးလုံး ကျွန်တော်တို့တွေ မနက်ခင်းတိုင်းမှာ Excel တွေ၊ Formula တွေ၊ Hard Skills တွေနဲ့ လုံးပန်းခဲ့ကြပြီးပြီ။ ဒါပေမဲ့ ခေါင်းဆောင်တစ်ယောက် ဖြစ်လာတဲ့အခါ၊ ဒါမှမဟုတ် လုပ်ငန်းခွင်မှာ ရင့်ကျက်လာတဲ့အခါ... နည်းပညာသက်သက်နဲ့ မလုံလောက်တော့ဘူးဆိုတာ သတိထားမိလာလိမ့်မယ်။
+ဒါကြောင့် ဒီနေ့ကစပြီး ညနေခင်းတိုင်းမှာ "One Day, One Insight" (တစ်နေ့တာ အသိပညာ) ဆိုတဲ့ အစီအစဉ်လေးကို စတင်လိုက်ပါတယ်။ ဒီနေရာမှာ ရှုပ်ထွေးတဲ့ ကိန်းဂဏန်းတွေအစား၊ ကျွန်တော့်ရဲ့ လုပ်ငန်းအတွေ့အကြုံ ဖြတ်သန်းမှုကနေ ရရှိခဲ့တဲ့ အတွေးအမြင်တွေ၊ အမှားတွေနဲ့ သင်ခန်းစာတွေကို ပေါ့ပေါ့ပါးပါး မျှဝေသွားမှာပါ။
+ဒီနေ့ Day 1 မှာတော့ ကျွန်တော် အရင်ဆုံး ပြောချင်တဲ့ အကြောင်းအရာက...
+"Data vs. Intuition" (အချက်အလက် နှင့် ဗီဇစိတ်) ပါ။
+ကျွန်တော်တို့ Data သမားတွေက ကိန်းဂဏန်းမပါရင် မယုံတတ်ကြဘူး။ ဒါပေမဲ့ တစ်ခါတလေကျရင် Report ထဲမှာ အစိမ်းရောင်ပြနေပေမယ့်၊ မြေပြင်မှာ တစ်ခုခုမှားနေတယ်လို့ ကိုယ့်စိတ်က ထင်နေမိတဲ့ အခိုက်အတန့်မျိုး ကြုံဖူးကြလား?
+လွန်ခဲ့တဲ့ နှစ်အနည်းငယ်က Branch တစ်ခုရဲ့ Report ဟာ အရမ်းကောင်းနေတယ်။ Repayment Rate 100%။ ဒါပေမဲ့ အဲဒီ Branch ကို ရောက်သွားတဲ့အခါ ဝန်ထမ်းတွေရဲ့ မျက်နှာက မလန်းဆန်းဘူး။ တိတ်ဆိတ်နေတယ်။ Data က "အဆင်ပြေတယ်" လို့ ပြောနေပေမယ့်၊ ကျွန်တော့်ရဲ့ Intuition (ဗီဇစိတ်) က "စိန်ခေါ်မှုတွေရှိနေတယ်" လို့ အော်နေတယ်။ နောက်ဆုံး စစ်ဆေးလိုက်တော့မှ တကယ်လည်း အခက်အခဲတွေရင်ဆိုင်ဖြေရှင်းရတာ ရှိနေခဲ့တာပါ။
+💡 The Insight:
+Data က ကျွန်တော်တို့ကို "ဘာဖြစ်နေလဲ" (What) ဆိုတာကို ပြနိုင်ပေမယ့် "ဘာကြောင့်လဲ" (Why) ဆိုတာကိုတော့ လူကပဲ ဆုံးဖြတ်လို့ ရတာပါ။ Data ကို လမ်းပြမြေပုံ (Map) အဖြစ်သုံးပါ၊ ဒါပေမဲ့ စတီယာရင်ကို ကိုင်ရမှာကတော့ ကိုယ့်ရဲ့ အသိစိတ်နဲ့ အတွေ့အကြုံပါပဲ။
+❓ Question of the Day:
+မိတ်ဆွေရော... Data က တစ်မျိုးပြနေပေမယ့် ကိုယ့်စိတ်ထင်တာက တစ်မျိုးဖြစ်နေတဲ့ အခြေအနေမျိုး ကြုံဖူးလား? Comment မှာ မျှဝေပေးခဲ့ပါဦး။
+#DataInsightsWithArkar #OneDayOneInsight #Day1 #Leadership #Microfinance #EveningReflections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard အလှတွေ ဖန်တီးနေမိလား? Action Plan က ဘယ်မှာလဲ?
+(One Day, One Insight - Day 2) 🌙
+ကျွန်တော်တို့ အလုပ်စဝင်ခါစမှာ ကိုယ်တတ်သမျှ Excel/Power BI စွမ်းရည်တွေထုတ်ပြီး အမိုက်စား Dashboard ကြီးတွေ ဖန်တီးတတ်ကြတယ်။ "ငါ့ Report က ရှယ်ပဲ" လို့ တွေးနေတုန်း...
+Meeting ခန်းထဲမှာ Boss က ဒီမေးခွန်း မေးလိုက်တဲ့အခါ ဆွံ့အသွားတတ်ကြတယ်။
+🛑 "So What? Where is the Action Plan?"
+(ဟုတ်ပြီ၊ ဒါဆို ဘာဆက်လုပ်ကြမလဲ?)
+💡 The Insight:
+Visual is Important, but Actionable is Necessary.
+Report တစ်ခု လှပနေဖို့ထက်၊ အဲဒီ Report ကနေ "ဘာလုပ်ရမယ်" ဆိုတဲ့ အဖြေထွက်လာဖို့က ပိုအရေးကြီးပါတယ်။ ပန်းချီကား မဆွဲပါနဲ့၊ လမ်းပြမြေပုံ ဆွဲပါ။
+❓ Question of the Day:
+ကိုယ့်ရဲ့ Report ကိုကြည့်ပြီး အထက်လူကြီးက "So What?" လို့ မေးခွန်းထုတ်တာ ခံဖူးလား? Comment မှာ မျှဝေပေးခဲ့ကြပါဦး။
+#DataInsightsWithArkar #OneDayOneInsight #Day2 #DataStorytelling #ActionableInsights #CareerGrowth </t>
+  </si>
+  <si>
+    <t>Data Analyst လား? Data Janitor (သန့်ရှင်းရေးသမား) လား?
+(One Day, One Insight - Day 3)
+လူတွေက Data Analyst တစ်ယောက်ကို မြင်ရင် ကွန်ပျူတာရှေ့မှာ အမိုက်စား Model တွေဆွဲ၊ ဟောလိဝုဒ်ကားတွေထဲကလို Hacker ဆန်ဆန် အလုပ်လုပ်နေတယ်လို့ ထင်ကြတယ်။
+ဒါပေမဲ့ တကယ့်လက်တွေ့ဘဝမှာတော့...
+ကျွန်တော်တို့ရဲ့ အချိန် ၈၀% ဟာ Data Cleaning (Data သန့်ရှင်းရေးလုပ်ခြင်း) မှာပဲ ကုန်ဆုံးလေ့ရှိပါတယ်။
+Date Format တွေ လွဲနေတာ လိုက်ပြင်ရတယ်။
+စာလုံးပေါင်း မှားနေတာတွေ လိုက်ရှာရတယ်။
+အကွက်လပ် (Blanks) တွေ၊ Duplicate (ထပ်နေတာ) တွေကို ဖယ်ရှားရတယ်။
+အလုပ်စဝင်ကာစဆိုရင် ဒီအလုပ်တွေကို အရမ်းမုန်းခဲ့ကြလိမ့်မယ်။ "Analysis လုပ်ဖို့ လာတာ၊ စာရင်းတွေ လိုက်ပြင်ဖို့ လာတာ မဟုတ်ဘူး" ဆိုပြီး စိတ်ပျက်ခဲ့ဖူးတယ်။ ဒါပေမဲ့ အတွေ့အကြုံရလာတဲ့အခါ အမှန်တရားတစ်ခုကို တွေ့ရလိမ့်မယ်။
+💡 The Insight:
+Clean Data is the Analysis.
+(Data ကို သန့်ရှင်းအောင် လုပ်လိုက်ခြင်းက Analysis ရဲ့ တစ်ဝက်ပြီးသွားပါပြီ။)
+ကမ္ဘာ့အကောင်းဆုံး Formula ကိုပဲ သုံးသုံး၊ သွင်းလိုက်တဲ့ Data က အမှိုက် (Garbage) ဖြစ်နေရင် ထွက်လာမယ့်အဖြေကလည်း အမှိုက် (Garbage) ပါပဲ။ ဒါကို "Garbage In, Garbage Out" လို့ ခေါ်ပါတယ်။
+ဒါကြောင့် Data Cleaning လုပ်နေရလို့ စိတ်မပျက်ပါနဲ့။ ခင်ဗျား အချိန်ဖြုန်းနေတာ မဟုတ်ပါဘူး။ ခင်ဗျားဟာ အိမ်ဆောက်ဖို့အတွက် မြေပြင်/ညှိနေတာပါ။ အုတ်မြစ်ခိုင်မှ တိုက်ဆောက်လို့ ရမှာကိုး။
+❓ Question of the Day:
+မိတ်ဆွေကော... Report တစ်ခုလုပ်ရင် Data ပြင်ရတဲ့အချိန် နဲ့ Analysis လုပ်ရတဲ့အချိန် ဘယ်ဟာက ပိုကြာလဲ?
+#DataInsightsWithArkar #OneDayOneInsight #Day3 #DataCleaning #RealityOfData #GarbageInGarbageOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> အကောင်းဆုံး ဆုံးဖြတ်ချက်ဆိုတာ အချိန်ကိုက် ဆုံးဖြတ်ခြင်းပါ (Analysis Paralysis)
+ကျွန်တော်တို့လို Manager‌ေတွ၊ Data Analyst တွေဟာ အလုပ်ကို အကောင်းဆုံးဖြစ်ချင်တဲ့ စေတနာ (High Standards) ကြောင့် အချက်အလက်တွေကို အသေးစိတ် စိစစ်ရင်း အချိန်ကုန်သွားတတ်ကြပါတယ်။
+ဒါကို Management မှာ "Analysis Paralysis" လို့ ခေါ်ပါတယ်။ ဒါဟာ တွေဝေလို့ ဖြစ်တာ မဟုတ်ပါဘူး၊ ပြည့်စုံလွန်းချင်တဲ့စိတ် (Perfectionism) ကြောင့် ဖြစ်တတ်တဲ့ သဘောသဘာဝ တစ်ခုပါ။
+ဒါပေမဲ့ ခေါင်းဆောင်ကောင်းတွေ ကျင့်သုံးတဲ့ လျှို့ဝှက်ချက် (၂) ခု ရှိပါတယ် -
+၁။ The 70% Rule (Jeff Bezos ၏ နည်းလမ်း)
+အချက်အလက် ၁၀၀% ပြည့်စုံဖို့ စောင့်နေရင် အခွင့်အရေးတွေ လက်လွတ်သွားနိုင်ပါတယ်။ သတင်းအချက်အလက် ၇၀% လောက် ခိုင်မာပြီဆိုရင် ယုံကြည်မှုရှိရှိ ဆုံးဖြတ်ချက်ချပြီး ရှေ့ဆက်တိုးလိုက်ပါ။ (Speed matters in business!)
+၂။ Progress over Perfection (ပြီးပြည့်စုံမှုထက် ခရီးတွင်မှုကို ဦးစားပေးပါ)
+Report တစ်စောင်၊ Plan တစ်ခုကို အလှဆုံးဖြစ်အောင် ပြင်နေမယ့်အစား၊ လက်တွေ့အကောင်အထည်ဖော်ပြီး လိုအပ်တာကို လမ်းခရီးမှာ ပြုပြင်ယူတာ (Iterate) က ပိုထိရောက်ပါတယ်။
+💡 Insight for Leaders:
+Data Analysis ဆိုတာ မီးပြတိုက်နဲ့ တူပါတယ်။ လမ်းပြပေးဖို့ပဲ ဖြစ်ပြီး၊ သင်္ဘောကို ရပ်တန့်ထားဖို့ မဟုတ်ပါဘူး။ မိတ်ဆွေတို့လည်း ကိုယ့်ရဲ့ "Intuition" (အတွေ့အကြုံရင့် အာရုံခံစားမှု) ကို ယုံကြည်ပြီး ဆုံးဖြတ်ချက်တွေ ချလိုက်ကြရအောင်!
+💬 Let's Discuss:
+Data မစုံသေးပေမဲ့ ရဲရဲဝံ့ဝံ့ ဆုံးဖြတ်ချက်ချပြီး အောင်မြင်ခဲ့တဲ့ အတွေ့အကြုံလေးတွေ ရှိရင် မျှဝေပေးခဲ့ပါဦးခင်ဗျာ။ 👇
+#DataInsightsWithArkar #OneDayOneInsight #Day4 #AnalysisParalysis #Leadership #GrowthMindset #DecisionMaking</t>
+  </si>
+  <si>
+    <t>The Misleading Metric: ပျမ်းမျှခြင်း (Average) ဟာ နားလည်မှု လွဲစေနိုင်ပါတယ်
+Data လောကမှာ လူသိများတဲ့ ဟာသတစ်ခု ရှိပါတယ်။
+"ပျမ်းမျှ ရေအနက် ၄ ပေရှိတဲ့ မြစ်ကို ဖြတ်ကူးတဲ့ စာရင်းအင်းပညာရှင်တစ်ယောက် ရေနစ်သေဆုံးသွားတယ်" တဲ့။
+ဘာကြောင့်လဲဆိုတော့ နေရာအများစုမှာ ရေက ၂ ပေလောက်ပဲ ရှိပေမဲ့၊ တချို့နေရာတွေမှာ ၁၀ ပေလောက်နက်နေလို့ပါပဲ။ ပျမ်းမျှခြင်း (Average) ဆိုတာက အဲ့ဒီ အစွန်းထွက်နေတဲ့ အချက်အလက် (Outliers) တွေကို ဖုံးကွယ်ထားတတ်လို့ အတော်လေး "Risky" ဖြစ်တဲ့ သဘောတရားပါ။
+Microfinance လုပ်ငန်းခွင်မှာလည်း ဒီအတိုင်းပါပဲ -
+Average PAR (ပျမ်းမျှ ချေးငွေဆုံးရှုံးနိုင်ခြေ): ကုမ္ပဏီတစ်ခုလုံးရဲ့ PAR က 2% ပဲရှိလို့ စိတ်ချရတယ်ဆိုပေမဲ့၊ ဘဏ်ခွဲတစ်ခုတည်းမှာ PAR 30% ဖြစ်ပြီး အခြေအနေဆိုးနေတာမျိုး ဖြစ်နိုင်ပါတယ်။
+Average Loan Size: ပျမ်းမျှ ချေးငွေပမာဏ ပုံမှန်ပါပဲဆိုပေမဲ့၊ တစ်ဖက်မှာ ချေးငွေအသေးစားတွေ ပျောက်ကွယ်ပြီး အန္တရာယ်များတဲ့ ချေးငွေအကြီးစားတွေ (Large Ticket Size) များလာတာမျိုး ဖြစ်နိုင်ပါတယ်။
+💡 Insight:
+Leader ကောင်းတွေဟာ "Average" မှာ ရပ်မနေပါဘူး။ "Distribution" (ပြန့်နှံ့မှုပုံစံ) ကို ဆက်ကြည့်ကြပါတယ်။ ပျမ်းမျှဆိုတာ အပေါ်ယံ သဘောတရားပါ၊ အနှစ်သာရက အသေးစိတ် (Segment/Variation) ထဲမှာ ရှိပါတယ်။
+Actionable Tip:
+မိတ်ဆွေတို့ရဲ့ Dashboard မှာ Average ဂဏန်းတစ်ခုတည်း ပြထားတာရှိရင်၊ အဲ့ဒီဂဏန်းရဲ့ Max (အများဆုံး) နဲ့ Min (အနည်းဆုံး) ကိုပါ တွဲကြည့်တဲ့ အလေ့အကျင့်လေး လုပ်ကြည့်ရအောင်နော်။
+❓ Question:
+မိတ်ဆွေတို့ လုပ်ငန်းခွင်မှာရော "ပျမ်းမျှ" ကို ကြည့်ပြီး ဆုံးဖြတ်မိလို့ အလွဲလွဲအချော်ချော် ဖြစ်ဖူးတဲ့ အတွေ့အကြုံလေးတွေ ရှိလား?
+#DataInsightsWithArkar #OneDayOneInsight #Day5 #TheRiskyMetric #AverageTrap #DataLiteracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Ethics: တွက်ချက်လို့ရတိုင်း တွက်ချက်သင့်တာ မဟုတ်ပါ
+ကျွန်တော်တို့ Data သမားတွေလက်ထဲမှာ ကုမ္ပဏီရဲ့ အချက်အလက်တွေ၊ Customer တွေရဲ့ ကိုယ်ရေးကိုယ်တာတွေ အများကြီး ရှိနေပါတယ်။ "Data is Power" (အချက်အလက်က စွမ်းအားတစ်ခု) ဆိုတာ မှန်ပါတယ်။
+ဒါပေမဲ့ "Spider-Man" ရုပ်ရှင်ထဲကလိုပဲ "With great power comes great responsibility" (စွမ်းအားကြီးရင် တာဝန်ယူမှုလည်း ကြီးရပါမယ်)။
+စဉ်းစားစရာ Ethical Dilemmas (ကျင့်ဝတ်ဆိုင်ရာ ပုစ္ဆာများ):
+Predictive Models: Customer တစ်ယောက်ရဲ့ ဝယ်ယူမှုပုံစံကို ကြည့်ပြီး သူ့ရဲ့ ကျန်းမာရေးအခြေအနေ (ဥပမာ - ကိုယ်ဝန်ရှိနေကြောင်း) ကို ခန့်မှန်းနိုင်တယ် ဆိုပါစို့။ အဲ့ဒီအချက်အလက်ကို Marketing အတွက် အသုံးပြုသင့်သလား? 🤔
+In Microfinance: အချက်အလက်တွေအရ ဆင်းရဲလွန်းတဲ့ ဒေသတစ်ခုက လူတွေက ချေးငွေပြန်ဆပ်နိုင်စွမ်း နည်းတယ်ဆိုတာ တွေ့ရတယ်။ ဒါကို အခြေခံပြီး အဲ့ဒီဒေသတစ်ခုလုံးကို ချေးငွေ လုံးဝမပေးဘဲ "Redline" တားလိုက်တာမျိုး လုပ်သင့်သလား? 🤔
+(ဒါက စီးပွားရေးအရ မှန်ပေမဲ့၊ လူမှုရေးအရ တရားမျှတမှု ရှိရဲ့လား?)
+💡 Insight:
+Data Point တစ်ခုစီတိုင်းဟာ ဂဏန်းသက်သက် မဟုတ်ပါဘူး။ တကယ့်ပြင်ပက လူသားတစ်ယောက်ရဲ့ ဘဝကို ကိုယ်စားပြုနေတာပါ။ Algorithm တွေဟာ ဘက်လိုက်မှု (Bias) မရှိသင့်သလို၊ လူတွေကို ထိခိုက်နစ်နာအောင်လည်း မလုပ်မိဖို့ လိုပါတယ်။
+"ငါ ဒါကို တွက်ချက်နိုင်လား?" (Can I?) ဆိုတဲ့ မေးခွန်းထက် "ငါ ဒါကို တွက်ချက်သင့်လား?" (Should I?) ဆိုတဲ့ မေးခွန်းက Leader ကောင်းတစ်ယောက်အတွက် ပိုအရေးကြီးပါတယ်။
+❓ Question:
+မိတ်ဆွေတို့ လုပ်ငန်းခွင်မှာရော Data ကို အသုံးပြုရင်း ကျင့်ဝတ်ပိုင်းဆိုင်ရာ ဝေခွဲရခက်တဲ့ အခြေအနေမျိုး ကြုံခဲ့ဖူးလား?
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Register here: https://forms.gle/bsjVMcD8nkBi4XhA9
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#DataInsightsWithArkar #OneDayOneInsight #Day6 #DataEthics #Responsibility #Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation vs. Causation
+🔄 ဆက်စပ်မှု (Correlation) နဲ့ အကြောင်းရင်း (Causation) ကို မရောထွေးပါနဲ့
+Data လောကမှာ ဂန္ထဝင်တွင်တဲ့ ဆိုရိုးစကားတစ်ခု ရှိပါတယ်။
+"Correlation does not imply Causation."
+(အတူတူ ယှဉ်တွဲဖြစ်ပျက်နေတာနဲ့၊ တစ်ခုကြောင့် တစ်ခုဖြစ်တယ်လို့ ပြောလို့မရပါဘူး)
+ဥပမာ - နွေရာသီမှာ "ရေခဲမုန့် အရောင်း" တက်လာသလို၊ ပင်လယ်ထဲမှာ "ငါးမန်းကိုက်ခံရမှု" လည်း မြင့်တက်လာတတ်ပါတယ်။ Data နှစ်ခုက အတူတူတက်နေတော့ (Correlation ရှိတော့) -
+"ရေခဲမုန့်စားရင် ငါးမန်းကိုက်ခံရမယ်" လို့ ကောက်ချက်ချမလား?
+လုံးဝ မဟုတ်ပါဘူး။ အကြောင်းရင်းအစစ် (Causation) က "ရာသီဥတု ပူလာလို့" လူတွေ ရေခဲမုန့်လည်း ပိုစားကြသလို၊ ပင်လယ်ကမ်းခြေလည်း ပိုသွားကြလို့ ဖြစ်ပါတယ်။
+Microfinance လုပ်ငန်းခွင်မှ ဥပမာ:
+Marketing စရိတ် ပိုသုံးတဲ့လတွေမှာ၊ ချေးငွေ Default (ပြန်မဆပ်နိုင်မှု) နှုန်းလည်း တက်လာတယ် ဆိုပါစို့။
+မှားယွင်းသော ကောက်ချက်: "Marketing လုပ်ရင် Default တက်တယ်" (ဒါကြောင့် Marketing ရပ်လိုက်မယ်)။
+ဖြစ်နိုင်သော အကြောင်းရင်းမှန်: Marketing ကြောင့် Customer အသစ်တွေ အများကြီး ဝင်လာတယ်။ အဲ့ဒီအသစ်တွေထဲမှာ စိစစ်မှု အားနည်းပြီး ဝင်လာတဲ့ Risky Customer တွေ ပါလာလို့ Default တက်တာ ဖြစ်နိုင်ပါတယ်
+💡 Insight:
+Leader ကောင်းတွေဟာ Graph နှစ်ခု အတူတူတက်နေတာ မြင်ရုံနဲ့ ဆုံးဖြတ်ချက် မချပါဘူး။ "ဘာကြောင့်လဲ?" (The Why) ဆိုတဲ့ အရင်းအမြစ်ကို ရှာဖွေကြပါတယ်။
+Actionable Tip:
+မိတ်ဆွေတို့အနေနဲ့ Report တစ်ခုမှာ Trend နှစ်ခု ဆက်စပ်နေတာတွေ့ရင် ချက်ချင်း ကောက်ချက်မချဘဲ၊ "တခြား ဘာအကြောင်းရင်းတွေ ရှိနိုင်သေးလဲ?" လို့ ကိုယ့်အဖွဲ့ကို မေးခွန်းထုတ်ကြည့်ပါ။
+❓ Question:
+မိတ်ဆွေတို့ရော လုပ်ငန်းခွင်မှာ ဒီလို "ယောင်ပြ" ဆက်စပ်မှုတွေကြောင့် အမှားအယွင်း ဆုံးဖြတ်မိလုနီးပါး ဖြစ်ဖူးလား?
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Register here: https://forms.gle/bsjVMcD8nkBi4XhA9
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#DataInsightsWithArkar #OneDayOneInsight #Day7 #CorrelationVsCausation #DataLiteracy #CriticalThinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">📉 အနီရောင်ဂဏန်းများ (Failure) ကို ဖုံးကွယ်မထားပါနဲ့
+ကျွန်တော်တို့ Dashboard တွေ၊ Report တွေလုပ်ရင် အစိမ်းရောင် (Target ပြည့်မီမှု၊ တိုးတက်မှု) တွေကိုပဲ အသားပေး ဖော်ပြချင်ကြပါတယ်။ ဒါက လူ့သဘာဝပါ။ ဘယ်သူက ကိုယ့်အပြစ်ကို လူသိခံချင်မှာလဲ?/Negative Number တွေကို ဖော်ပြချင်မလဲ?
+ဒါပေမဲ့ Data-Driven Leader တစ်ယောက်အတွက်တော့ "အနီရောင်ဂဏန်း" (Red Numbers) တွေဟာ ရွှေထက်တန်ဖိုးရှိတဲ့ သတင်းအချက်အလက်တွေပါ။
+ဘာကြောင့်လဲ?
+🎉အစိမ်းရောင် (Success) က ကျွန်တော်တို့ ဘာတွေမှန်ခဲ့လဲဆိုတာ ပြောပြတယ်။ (အတိတ်ကို ဂုဏ်ပြုခြင်း)
+💪အနီရောင် (Failure) က ကျွန်တော်တို့ ဘာတွေပြင်ရမလဲဆိုတာ ပြောပြတယ်။ (အနာဂတ်ကို တည်ဆောက်ခြင်း)
+Microfinance မှာ PAR တက်နေတာ၊ Disbursement လျော့နေတာတွေကို Management ကို အားနာလို့၊ ဒါမှမဟုတ် အပြစ်မြင်ခံရမှာစိုးလို့ Report မှာ မှေးမှိန်အောင် ပြထားမယ်ဆိုရင်၊ ကုမ္ပဏီက ပြုပြင်ဖို့ အခွင့်အရေး ဆုံးရှုံးသွားပါလိမ့်မယ်။
+💡 Insight:
+"Failure is not the opposite of success; it's part of success."
+ဆုံးရှုံးမှုကို မြင်သာအောင် (Visualize) လုပ်ပေးခြင်းဟာ အဖွဲ့အစည်းကို အမှန်တရားနဲ့ ရင်ဆိုင်ခိုင်းတာ (Confronting Reality) ပါပဲ။
+Actionable Tip:
+မိတ်ဆွေတို့ရဲ့ Dashboard မှာ အရေးကြီးပေမဲ့ ကျဆင်းနေတဲ့ အချက်အလက် (Red Metrics) တွေကို ထောင့်မှာ သေးသေးလေး မထားဘဲ၊ အပေါ်ဆုံးမှာ ထင်ရှားအောင် ပြသတဲ့ အလေ့အကျင့် လုပ်ကြည့်ပါ။
+❓ Question:
+မိတ်ဆွေတို့ လုပ်ငန်းခွင်မှာရော "Risk Flags" တွေကို အထက်ကို တင်ပြဖို့ ဝန်လေးနေတဲ့ ယဉ်ကျေးမှုမျိုး ရှိနေလား?
+🚀 Level Up Your Data Skills!
+📥 Excel for Business Management (Video Class)
+၅,၀၀၀ ကျပ်မှ စတင်လေ့လာနိုင်ပါသည်။
+Comment မှာ Register link မျှဝေပေးထားသည်❤️
+(သို့မဟုတ် Chat တွင် Email လိပ်စာပေး၍ အပ်နှံနိုင်ပါသည်)
+📊 Power BI Basic to Master (Online Live Class)
+Dashboard တည်ဆောက်နည်း ကျွမ်းကျင်လိုသူများအတွက် အတန်းသစ် အမြဲရှိပါသည်။
+(အသေးစိတ်ကို Chat Box တွင် မေးမြန်းနိုင်ပါသည်)
+#DataInsightsWithArkar #OneDayOneInsight #Day8 #VisualizingFailure #Transparancy #DataDrivenLeadership </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:📝 The Art of Executive Summary: စာတစ်မျက်နှာဖြင့် အလုပ်ပြီးမြောက်ခြင်း
+Data Professional တစ်ယောက်အနေနဲ့ ကျွန်တော်တို့က Analysis လုပ်တဲ့အခါ နာရီပေါင်းများစွာ (ရက်ပေါင်းများစွာ) အချိန်ပေးရတတ်ပါတယ်။ ဒါပေမဲ့ ကျွန်တော်တို့ရဲ့ Report ကို ဖတ်မယ့် Decision Maker တွေ (Executives) ပေးနိုင်တဲ့ အချိန်က ၅ မိနစ်တောင် မပြည့်တတ်ပါဘူး။
+ဒီနေရာမှာ "Communication Gap" ဖြစ်လာပါတယ်။
+ကျွန်တော်တို့က "ဘယ်လိုတွက်ခဲ့လဲ" (Process) ကို ပြချင်ပေမဲ့၊ သူတို့က "ဘာဆက်လုပ်ရမလဲ" (Impact) ကိုပဲ သိချင်ကြတာပါ။
+ဒါကြောင့် Report ကောင်းတစ်စောင်ရဲ့ တန်ဖိုးဟာ စာမျက်နှာအများကြီးမှာ မရှိဘဲ၊ ပထမဆုံးစာမျက်နှာ "Executive Summary" မှာပဲ ရှိပါတယ်။
+Career Growth Tip: The BLUF Method
+Senior Data Role တွေကို တက်လှမ်းချင်ရင် BLUF (Bottom Line Up Front) စနစ်ကို ကျင့်သုံးပါ။
+❌ Junior Way: ပြဿနာ &gt; တွက်ချက်နည်း &gt; တွေ့ရှိချက် &gt; နိဂုံး။ (Process-Oriented)
+✅ Senior/Lead Way: အဓိက အကြံပြုချက် (Recommendation) &gt; အကျဉ်းချုပ် အကြောင်းပြချက် &gt; စီးပွားရေး အကျိုးသက်ရောက်မှု (Business Impact)။
+💡 Insight:
+အထက်လူကြီးတွေဟာ စာအုပ်တစ်အုပ်လုံးကို ဖတ်ပြီးမှ အနှစ်ချုပ်ကို ရှာချင်သူတွေ မဟုတ်ပါဘူး။ အနှစ်ချုပ်ကို အရင်ဖတ်၊ စိတ်ဝင်စားမှ အထဲကို ဆက်ဖတ်မယ့်သူတွေပါ။ Summary မကောင်းရင်၊ ကျန်တဲ့ Analysis တစ်ခုလုံး "Waste" ဖြစ်သွားနိုင်ပါတယ်။
+Actionable Step:
+နောက်တစ်ခါ Report တင်ရင် Executive Summary ကို "One Pager" (စာတစ်မျက်နှာ) ထက် မပိုအောင် ရေးပါ။ ကိုယ့် Report တစ်အုပ်လုံးကို စာကြောင်း ၃ ကြောင်းနဲ့ Pitch လုပ်ရမယ်ဆိုရင် ဘာပြောမလဲ? အဲ့ဒါကို ထိပ်ဆုံးမှာ ရေးပါ။
+Let's Discuss:
+မိတ်ဆွေတို့ရော ကိုယ့်ရဲ့ Analysis ကို အထက်လူကြီးတွေ နားမလည်လို့၊ ဒါမှမဟုတ် စာရှည်လို့ဆိုပြီး ပယ်ချခံရဖူးတဲ့ အတွေ့အကြုံမျိုး ရှိလား? Comment မှာ ဆွေးနွေးပေးခဲ့ပါဦး။ 👇
+🔥 Level Up Your Data Career!
+Data Analysis စွမ်းရည်များကို အခြေခံမှစ၍ Professional အဆင့်ထိ လေ့လာလိုပါသလား?
+TIS Website တွင် မိမိနှင့်ကိုက်ညီမည့် Learning Path ကို ရွေးချယ်ပြီး ယခုပဲ စာရင်းသွင်းလိုက်ပါ။
+🎯 Choose Your Path:
+🟢 Excel (Business Mgmt &amp; Reporting)
+🟡 Power Query (Data Cleaning &amp; Automation)
+🔵 Power BI (Data Modeling &amp; Visualization)
+👇 Start Learning Here: 👇
+(Website Link in Comment Section)
+#Excel #business #insight #Solutions #leadership </t>
   </si>
 </sst>
 </file>
@@ -514,6 +1273,212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5DE28-4C17-4DD7-BB74-FD64E0044119}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490AB32B-6769-4C0E-BEEA-01AF3319056B}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2CB876-9987-4C4C-859E-EEF38772F081}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E25A69-3CCE-4042-A2E5-474D1730DD71}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C872A52-1806-4BE3-AD77-55C527F627C4}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2FEEE8-677F-4118-B2EF-77FE274ECB1F}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="112.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F40ADA-AF60-4B19-B1F7-A7F4B9A21D2F}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8536F09A-AE82-4D62-B95B-6605627D469F}">
+  <dimension ref="C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A6A58-64FC-42D9-9F18-BED9325CA434}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="98.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7BCD8D-C82C-452A-9E99-2F76DDA5374F}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D321F73B-A166-40D9-BFAB-4A160DD0FE55}">
   <dimension ref="B2"/>
@@ -537,6 +1502,206 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F092A5-E7FB-4315-B72F-94B090191521}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F174DEB-8AC9-4B09-953F-11C1F08DC794}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEC9D05-CD5D-4FE0-9160-CF0F013B4267}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECE9C86-25BD-47AD-BD0E-AFDA7FE7A1CC}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H15:H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142B343D-C012-421F-A8BE-9C856344F94E}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2500E35D-DF00-45C2-888C-B18B7632BFC8}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2CAC95-6571-4C51-A50F-A24030EA918D}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5820E3B9-28C8-4E51-AB8C-EDF97367235C}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B9940F-B632-4C72-9812-789BE205C73E}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A3DFB5-18E8-40C6-B707-3D006CFBAED2}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DD77C-81AF-4CC8-B990-134CA9C1D820}">
   <dimension ref="B2"/>
@@ -560,11 +1725,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7B7592-4FB1-440D-82B8-79C950BC4D97}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFDE588-6073-4415-BFB5-1726DB6CDE34}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66ACDDC1-1019-4AC5-B4CE-7E4594AF017C}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9051DB-2611-4DC8-9C39-8BBC9111D4E7}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829A3F37-4F4E-4564-9D05-C4AB6D014335}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F06C49B-CA17-483F-B447-0E4D868E9280}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -581,4 +1846,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB727769-C987-4F37-AF4D-44AF2BDE4453}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB297D9-3B78-4A28-9CB9-57355CDFB6C2}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BE83D8-1DC7-49E0-A63D-F4745BB49B54}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B20B1-4A68-4EC0-B4B0-707AEA232E42}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC71656-FBBB-44D8-B490-1930B82C9459}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Leader's note.xlsx
+++ b/Leader's note.xlsx
@@ -5,48 +5,48 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wvi365-my.sharepoint.com/personal/arkar_linn_visionfund_org/Documents/Desktop/images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/05d227db91bf3aa2/GitHub/tis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{BC9FD343-DC0A-4AC8-A18C-1F69C7E27C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8EC9015-32FD-4318-B123-D59638C6ACDC}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{BC9FD343-DC0A-4AC8-A18C-1F69C7E27C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1C37C1-D69E-46D1-ADE2-D4776AF41F15}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="-3525" windowWidth="19755" windowHeight="20985" tabRatio="847" firstSheet="23" activeTab="33" xr2:uid="{926027B3-CA24-4164-B444-5B6AFF725907}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="955" firstSheet="9" activeTab="16" xr2:uid="{926027B3-CA24-4164-B444-5B6AFF725907}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
-    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
-    <sheet name="Sheet25" sheetId="25" r:id="rId25"/>
-    <sheet name="Sheet26" sheetId="26" r:id="rId26"/>
-    <sheet name="Sheet27" sheetId="27" r:id="rId27"/>
-    <sheet name="Sheet28" sheetId="28" r:id="rId28"/>
-    <sheet name="Sheet29" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet30" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet31" sheetId="31" r:id="rId31"/>
-    <sheet name="Sheet32" sheetId="32" r:id="rId32"/>
-    <sheet name="Sheet33" sheetId="33" r:id="rId33"/>
-    <sheet name="Sheet34" sheetId="34" r:id="rId34"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
+    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet name="16" sheetId="16" r:id="rId16"/>
+    <sheet name="17" sheetId="17" r:id="rId17"/>
+    <sheet name="18" sheetId="18" r:id="rId18"/>
+    <sheet name="19" sheetId="19" r:id="rId19"/>
+    <sheet name="20" sheetId="20" r:id="rId20"/>
+    <sheet name="21" sheetId="21" r:id="rId21"/>
+    <sheet name="22" sheetId="22" r:id="rId22"/>
+    <sheet name="23" sheetId="23" r:id="rId23"/>
+    <sheet name="24" sheetId="24" r:id="rId24"/>
+    <sheet name="25" sheetId="25" r:id="rId25"/>
+    <sheet name="26" sheetId="26" r:id="rId26"/>
+    <sheet name="27" sheetId="27" r:id="rId27"/>
+    <sheet name="28" sheetId="28" r:id="rId28"/>
+    <sheet name="29" sheetId="29" r:id="rId29"/>
+    <sheet name="30" sheetId="30" r:id="rId30"/>
+    <sheet name="31" sheetId="31" r:id="rId31"/>
+    <sheet name="32" sheetId="32" r:id="rId32"/>
+    <sheet name="33" sheetId="33" r:id="rId33"/>
+    <sheet name="34" sheetId="34" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>မင်္ဂလာပါ... ကျွန်တော် Arkar ပါ။ 👋
 Microfinance လုပ်ငန်းခွင်ထဲမှာ ကျွန်တော် ၁၀ နှစ်ကျော် ဖြတ်သန်းခဲ့ပါတယ်။ ဒီခရီးလမ်းက လွယ်ကူခဲ့တာတော့ မဟုတ်ပါဘူး။
@@ -876,6 +876,37 @@
 👇 Start Learning Here: 👇
 (Website Link in Comment Section)
 #Excel #business #insight #Solutions #leadership </t>
+  </si>
+  <si>
+    <t>Excel လား? Power BI လား? ဘယ်အချိန်မှာ ဘာကိုသုံးမလဲ? ⚔️📊
+"ကိုအာကာ... Power BI ပေါ်လာပြီဆိုတော့ Excel က ခေတ်ကုန်သွားပြီလား?"
+"Report တွေလုပ်ဖို့ ဘယ်ဟာကို အဓိက လေ့လာသင့်လဲ?"
+ဒီမေးခွန်းတွေက Data လောကထဲ ဝင်လာသူတိုင်း မေးလေ့ရှိတဲ့ မေးခွန်းတွေပါ။
+ကျနော့်အဖြေကတော့ - "သူတို့နှစ်ခုက ပြိုင်ဘက်တွေ မဟုတ်ပါဘူး၊ မိတ်ဖက် (Partner) တွေပါ" ဆိုတာပါပဲ။
+ဘယ်အချိန်မှာ ဘာကိုသုံးမလဲဆိုတာ "ရည်ရွယ်ချက် (Purpose)" ပေါ်မှာ မူတည်ပါတယ်။
+၁။ Excel ကို ဘယ်အချိန်သုံးမလဲ? (The Flexible Workspace) 📗
+Excel ဆိုတာ Data တွေရဲ့ "မီးဖိုချောင်" လိုပါပဲ။
+✅ Data Entry &amp; Cleaning: Data တွေကို ပြင်ချင်၊ ဖြည့်ချင်၊ စစ်ဆေးချင်တဲ့အခါ Excel က အကောင်းဆုံးပါ။
+✅ Ad-hoc Analysis: ချက်ချင်း လက်တန်းတွက်ချက်ရမယ့် ကိစ္စတွေ၊ ရှုပ်ထွေးတဲ့ Financial Model တွေ တွက်တဲ့အခါ Excel က King ပါ။
+✅ Small Data: Data ပမာဏ မများဘူး၊ မြန်မြန်ဆန်ဆန် အဖြေလိုချင်ရင် Excel ကို ရွေးပါ။
+၂။ Power BI ကို ဘယ်အချိန်သုံးမလဲ? (The Powerful Display) 📊
+Power BI ဆိုတာကတော့ ချက်ပြုတ်ပြီးသား ဟင်းပွဲတွေကို ခင်းကျင်းပြသတဲ့ "ထမင်းစားပွဲ" နဲ့ တူပါတယ်။
+✅ Automation: လစဉ် Report တွေကို ထပ်ခါထပ်ခါ လုပ်စရာမလိုဘဲ Auto Refresh လုပ်ချင်ရင် Power BI ကို သုံးပါ။
+✅ Large Data: Excel က Row ၁ သန်းကျော်ရင် လေးလံသွားပေမယ့်၊ Power BI က Row သန်းချီကို ပေါ့ပါးစွာ ကိုင်တွယ်နိုင်ပါတယ်။
+✅ Interactive Dashboard: Boss တွေကို Click နှိပ်ပြီး ကိုယ်တိုင်ကြည့်လို့ရတဲ့ Dashboard မျိုး ပေးချင်ရင် Power BI က အကောင်းဆုံးပါ။
+✅ Security: ကိုယ့် Data ကို သူများဝင်မပြင်စေချင်ရင် (Read-only) အနေနဲ့ Share ဖို့ Power BI က စိတ်ချရပါတယ်။
+Summary (သုံးသပ်ချက်)
+မိတ်ဆွေက Data ကို "မွေးထုတ်ပြီး ပြုပြင်မယ့်သူ" ဆိုရင် Excel ကို ပိုင်နိုင်အောင် လုပ်ပါ။
+မိတ်ဆွေက Data ကို "ဆုံးဖြတ်ချက်ချဖို့ တင်ပြမယ့်သူ" ဆိုရင် Power BI ကို ထပ်ဖြည့်ပါ။
+Senior Level ရောက်လာလေ... ဒီလက်နက်နှစ်ခုလုံးကို ဘယ်အချိန်မှာ ထုတ်သုံးရမလဲဆိုတာ သိလေပါပဲ။ တူ (Hammer) နဲ့ထုရမယ့်နေရာမှာ ဝက်အူလှည့် (Screwdriver) သွားသုံးနေရင် အချိန်ကုန်ပြီး လူပန်းပါလိမ့်မယ်။
+ကဲ... မိတ်ဆွေကရော လက်ရှိမှာ ဘယ် Tool ကို ပိုအားသန်နေလဲ? Comment မှာ ဆွေးနွေးသွားလို့ ရပါတယ်ဗျာ။ 👇
+💡 Call to Action
+✅ Foundation (Excel):
+Data ကို စိတ်ကြိုက်ကစားဖို့ Excel Logic တွေကို အရင်ပိုင်နိုင်ချင်ရင် "Excel for Business Management" အတန်းရှိပါတယ်။
+👉 Register Here: [Google Form Link in comment]
+🚀 Visualization (Power BI):
+Excel နဲ့တင်မကတော့ဘဲ Report တွေကို Automation လုပ်ပြီး Dashboard အမိုက်စားတွေ ဆွဲချင်ရင်တော့ "Power BI Basic to Master (Jan Intake)" အတွက် လူစာရင်း စပေးသွင်းလို့ ရပါပြီ။ (Seats Limited!)
+#TheInsightsSolution #DataInsightsWithArkar #LeadersNote #Day17 #ExcelVsPowerBI #ToolSelection #DataAnalytics</t>
   </si>
 </sst>
 </file>
@@ -1277,11 +1308,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5DE28-4C17-4DD7-BB74-FD64E0044119}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="154.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1297,11 +1331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490AB32B-6769-4C0E-BEEA-01AF3319056B}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="190" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1315,13 +1352,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2CB876-9987-4C4C-859E-EEF38772F081}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="159.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1335,16 +1378,25 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E25A69-3CCE-4042-A2E5-474D1730DD71}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B3:BN3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="66" max="66" width="95.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:66" ht="198.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1355,13 +1407,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C872A52-1806-4BE3-AD77-55C527F627C4}">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="160.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1375,15 +1433,18 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2FEEE8-677F-4118-B2EF-77FE274ECB1F}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="112.54296875" customWidth="1"/>
+    <col min="3" max="3" width="149" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
@@ -1398,13 +1459,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F40ADA-AF60-4B19-B1F7-A7F4B9A21D2F}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="204" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
@@ -1418,17 +1485,23 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8536F09A-AE82-4D62-B95B-6605627D469F}">
-  <dimension ref="C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="C3" s="1" t="s">
-        <v>15</v>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="136.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1514,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1464,7 +1537,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1507,7 +1580,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1527,7 +1600,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,7 +1620,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1567,7 +1640,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H15:H43"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1587,7 +1660,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,7 +1680,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1627,7 +1700,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1647,7 +1720,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1667,7 +1740,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1687,7 +1760,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1730,7 +1803,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1750,7 +1823,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1770,7 +1843,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,7 +1863,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1809,11 +1882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829A3F37-4F4E-4564-9D05-C4AB6D014335}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1852,13 +1928,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB727769-C987-4F37-AF4D-44AF2BDE4453}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="182.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1872,11 +1951,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB297D9-3B78-4A28-9CB9-57355CDFB6C2}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="191.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1892,11 +1974,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BE83D8-1DC7-49E0-A63D-F4745BB49B54}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="201.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1912,11 +1997,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B20B1-4A68-4EC0-B4B0-707AEA232E42}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="166.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1932,11 +2020,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC71656-FBBB-44D8-B490-1930B82C9459}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="172.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
